--- a/evaluation_files/EMO, POLICY & VAS QA_updated.xlsx
+++ b/evaluation_files/EMO, POLICY & VAS QA_updated.xlsx
@@ -5,17 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://avanade-my.sharepoint.com/personal/aina_rahim_avanade_com/Documents/Microsoft Teams Chat Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhammad.s.safian\OneDrive - Avanade\Project\MAIN_PROJECT\_avanade_main\_avanade_main\_01_prudential\PRUHK-AgenticRAG-V4\evaluation_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="13_ncr:1_{77B0D177-DCD1-4164-AECA-48BFE5BFBFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B769444-E6E0-4270-A3A4-59FAFA9F03BC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147EC42E-6D72-4B05-BEFF-67AFB9D816F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29055" yWindow="16125" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$244</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3548,7 +3551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3583,7 +3586,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3609,10 +3611,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3900,22 +3898,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E244"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" customWidth="1"/>
-    <col min="2" max="2" width="53.54296875" customWidth="1"/>
-    <col min="3" max="3" width="34.54296875" customWidth="1"/>
-    <col min="4" max="4" width="54.453125" customWidth="1"/>
-    <col min="5" max="5" width="201.81640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="53.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="4" max="4" width="54.44140625" customWidth="1"/>
+    <col min="5" max="5" width="201.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3932,7 +3931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -3949,7 +3948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -3966,7 +3965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -3983,7 +3982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -4000,7 +3999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -4017,7 +4016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -4034,7 +4033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -4051,7 +4050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -4068,7 +4067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -4085,7 +4084,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -4102,7 +4101,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -4119,7 +4118,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -4136,7 +4135,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -4153,7 +4152,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
@@ -4170,7 +4169,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -4187,7 +4186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -4204,7 +4203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
@@ -4221,7 +4220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>48</v>
       </c>
@@ -4238,7 +4237,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>48</v>
       </c>
@@ -4255,7 +4254,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>48</v>
       </c>
@@ -4272,7 +4271,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>48</v>
       </c>
@@ -4289,7 +4288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>48</v>
       </c>
@@ -4306,7 +4305,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
@@ -4323,7 +4322,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>48</v>
       </c>
@@ -4340,7 +4339,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="174" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>48</v>
       </c>
@@ -4357,7 +4356,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>48</v>
       </c>
@@ -4374,7 +4373,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>48</v>
       </c>
@@ -4391,7 +4390,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>48</v>
       </c>
@@ -4408,7 +4407,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>48</v>
       </c>
@@ -4425,7 +4424,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>48</v>
       </c>
@@ -4442,7 +4441,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>48</v>
       </c>
@@ -4459,7 +4458,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>48</v>
       </c>
@@ -4476,7 +4475,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>48</v>
       </c>
@@ -4493,7 +4492,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>48</v>
       </c>
@@ -4510,7 +4509,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>48</v>
       </c>
@@ -4527,7 +4526,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>48</v>
       </c>
@@ -4544,7 +4543,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>48</v>
       </c>
@@ -4561,7 +4560,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>48</v>
       </c>
@@ -4578,7 +4577,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>48</v>
       </c>
@@ -4595,7 +4594,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>48</v>
       </c>
@@ -4612,7 +4611,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>48</v>
       </c>
@@ -4629,7 +4628,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>48</v>
       </c>
@@ -4646,7 +4645,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>48</v>
       </c>
@@ -4663,7 +4662,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>48</v>
       </c>
@@ -4680,7 +4679,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>48</v>
       </c>
@@ -4697,7 +4696,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>48</v>
       </c>
@@ -4714,7 +4713,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>48</v>
       </c>
@@ -4731,7 +4730,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>48</v>
       </c>
@@ -4748,7 +4747,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>48</v>
       </c>
@@ -4765,7 +4764,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>48</v>
       </c>
@@ -4782,7 +4781,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>48</v>
       </c>
@@ -4799,7 +4798,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>48</v>
       </c>
@@ -4816,7 +4815,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>48</v>
       </c>
@@ -4833,7 +4832,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>48</v>
       </c>
@@ -4850,7 +4849,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>48</v>
       </c>
@@ -4867,7 +4866,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>48</v>
       </c>
@@ -4884,7 +4883,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>48</v>
       </c>
@@ -4901,7 +4900,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>48</v>
       </c>
@@ -4918,7 +4917,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>48</v>
       </c>
@@ -4935,7 +4934,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>48</v>
       </c>
@@ -4952,7 +4951,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>48</v>
       </c>
@@ -4969,7 +4968,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>48</v>
       </c>
@@ -4986,7 +4985,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>48</v>
       </c>
@@ -5003,7 +5002,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>48</v>
       </c>
@@ -5020,7 +5019,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>48</v>
       </c>
@@ -5037,7 +5036,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>48</v>
       </c>
@@ -5054,7 +5053,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>48</v>
       </c>
@@ -5071,7 +5070,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>48</v>
       </c>
@@ -5088,7 +5087,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>48</v>
       </c>
@@ -5105,7 +5104,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>180</v>
       </c>
@@ -5122,7 +5121,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>180</v>
       </c>
@@ -5139,7 +5138,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>180</v>
       </c>
@@ -5156,7 +5155,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>180</v>
       </c>
@@ -5173,7 +5172,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>180</v>
       </c>
@@ -5190,7 +5189,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>180</v>
       </c>
@@ -5207,7 +5206,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>180</v>
       </c>
@@ -5224,7 +5223,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>180</v>
       </c>
@@ -5241,7 +5240,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>180</v>
       </c>
@@ -5258,7 +5257,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>180</v>
       </c>
@@ -5275,7 +5274,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>180</v>
       </c>
@@ -5292,7 +5291,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>180</v>
       </c>
@@ -5309,7 +5308,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="203" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>180</v>
       </c>
@@ -5326,7 +5325,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="203" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>180</v>
       </c>
@@ -5343,7 +5342,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>180</v>
       </c>
@@ -5360,7 +5359,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>180</v>
       </c>
@@ -5377,7 +5376,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>180</v>
       </c>
@@ -5394,7 +5393,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="203" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>180</v>
       </c>
@@ -5411,7 +5410,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" ht="216" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>180</v>
       </c>
@@ -5428,7 +5427,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" ht="216" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>180</v>
       </c>
@@ -5445,7 +5444,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>180</v>
       </c>
@@ -5462,7 +5461,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>180</v>
       </c>
@@ -5479,7 +5478,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>180</v>
       </c>
@@ -5496,7 +5495,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>180</v>
       </c>
@@ -5513,7 +5512,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>180</v>
       </c>
@@ -5530,7 +5529,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>180</v>
       </c>
@@ -5547,7 +5546,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>180</v>
       </c>
@@ -5564,7 +5563,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>180</v>
       </c>
@@ -5581,7 +5580,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>180</v>
       </c>
@@ -5598,7 +5597,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>180</v>
       </c>
@@ -5615,7 +5614,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>180</v>
       </c>
@@ -5632,7 +5631,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>180</v>
       </c>
@@ -5649,7 +5648,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>180</v>
       </c>
@@ -5666,7 +5665,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>180</v>
       </c>
@@ -5683,7 +5682,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>180</v>
       </c>
@@ -5700,7 +5699,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>180</v>
       </c>
@@ -5717,7 +5716,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>180</v>
       </c>
@@ -5734,7 +5733,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>180</v>
       </c>
@@ -5751,7 +5750,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>180</v>
       </c>
@@ -5768,7 +5767,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>180</v>
       </c>
@@ -5785,7 +5784,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>180</v>
       </c>
@@ -5802,7 +5801,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>180</v>
       </c>
@@ -5819,7 +5818,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>180</v>
       </c>
@@ -5836,7 +5835,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>180</v>
       </c>
@@ -5853,7 +5852,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>180</v>
       </c>
@@ -5870,7 +5869,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>180</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>180</v>
       </c>
@@ -5904,7 +5903,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>180</v>
       </c>
@@ -5921,7 +5920,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>180</v>
       </c>
@@ -5938,7 +5937,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>180</v>
       </c>
@@ -5955,7 +5954,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>180</v>
       </c>
@@ -5972,7 +5971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>180</v>
       </c>
@@ -5989,7 +5988,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="12" t="s">
         <v>180</v>
       </c>
@@ -6006,7 +6005,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="12" t="s">
         <v>180</v>
       </c>
@@ -6023,7 +6022,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="12" t="s">
         <v>180</v>
       </c>
@@ -6040,7 +6039,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="12" t="s">
         <v>180</v>
       </c>
@@ -6057,7 +6056,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="12" t="s">
         <v>180</v>
       </c>
@@ -6074,7 +6073,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="12" t="s">
         <v>180</v>
       </c>
@@ -6091,7 +6090,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="12" t="s">
         <v>180</v>
       </c>
@@ -6108,7 +6107,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="12" t="s">
         <v>180</v>
       </c>
@@ -6125,7 +6124,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="12" t="s">
         <v>180</v>
       </c>
@@ -6142,7 +6141,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="12" t="s">
         <v>180</v>
       </c>
@@ -6159,7 +6158,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>180</v>
       </c>
@@ -6176,7 +6175,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>180</v>
       </c>
@@ -6193,7 +6192,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>180</v>
       </c>
@@ -6210,7 +6209,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>180</v>
       </c>
@@ -6227,7 +6226,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>180</v>
       </c>
@@ -6244,7 +6243,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>180</v>
       </c>
@@ -6261,7 +6260,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>180</v>
       </c>
@@ -6278,7 +6277,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>180</v>
       </c>
@@ -6295,7 +6294,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>180</v>
       </c>
@@ -6312,7 +6311,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>180</v>
       </c>
@@ -6329,7 +6328,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
         <v>362</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
         <v>362</v>
       </c>
@@ -6363,7 +6362,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="377" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" ht="374.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
         <v>362</v>
       </c>
@@ -6380,7 +6379,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="8" t="s">
         <v>362</v>
       </c>
@@ -6397,7 +6396,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
         <v>362</v>
       </c>
@@ -6414,7 +6413,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="377" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" ht="374.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
         <v>362</v>
       </c>
@@ -6431,7 +6430,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
         <v>362</v>
       </c>
@@ -6448,7 +6447,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
         <v>362</v>
       </c>
@@ -6465,7 +6464,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="377" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" ht="374.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
         <v>362</v>
       </c>
@@ -6482,7 +6481,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
         <v>362</v>
       </c>
@@ -6499,7 +6498,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="377" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" ht="374.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
         <v>362</v>
       </c>
@@ -6516,7 +6515,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="377" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" ht="374.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
         <v>362</v>
       </c>
@@ -6533,7 +6532,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="377" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" ht="374.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
         <v>362</v>
       </c>
@@ -6550,7 +6549,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
         <v>362</v>
       </c>
@@ -6567,7 +6566,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
         <v>362</v>
       </c>
@@ -6584,7 +6583,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
         <v>362</v>
       </c>
@@ -6601,7 +6600,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="14" t="s">
         <v>362</v>
       </c>
@@ -6618,7 +6617,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="14" t="s">
         <v>362</v>
       </c>
@@ -6635,7 +6634,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="14" t="s">
         <v>362</v>
       </c>
@@ -6652,7 +6651,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="14" t="s">
         <v>362</v>
       </c>
@@ -6669,7 +6668,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="14" t="s">
         <v>362</v>
       </c>
@@ -6686,7 +6685,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="14" t="s">
         <v>362</v>
       </c>
@@ -6703,7 +6702,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="s">
         <v>362</v>
       </c>
@@ -6720,7 +6719,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="14" t="s">
         <v>362</v>
       </c>
@@ -6737,7 +6736,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="14" t="s">
         <v>362</v>
       </c>
@@ -6754,7 +6753,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
         <v>362</v>
       </c>
@@ -6771,7 +6770,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
         <v>362</v>
       </c>
@@ -6788,7 +6787,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10" t="s">
         <v>362</v>
       </c>
@@ -6805,7 +6804,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
         <v>362</v>
       </c>
@@ -6822,7 +6821,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10" t="s">
         <v>362</v>
       </c>
@@ -6839,7 +6838,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>362</v>
       </c>
@@ -6856,7 +6855,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="261" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="10" t="s">
         <v>362</v>
       </c>
@@ -6873,7 +6872,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="10" t="s">
         <v>362</v>
       </c>
@@ -6890,7 +6889,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="10" t="s">
         <v>362</v>
       </c>
@@ -6907,7 +6906,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>362</v>
       </c>
@@ -6924,7 +6923,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>362</v>
       </c>
@@ -6941,7 +6940,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>362</v>
       </c>
@@ -6958,7 +6957,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>362</v>
       </c>
@@ -6975,7 +6974,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>362</v>
       </c>
@@ -6992,7 +6991,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>362</v>
       </c>
@@ -7009,7 +7008,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>362</v>
       </c>
@@ -7026,7 +7025,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="8" t="s">
         <v>362</v>
       </c>
@@ -7043,7 +7042,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="8" t="s">
         <v>362</v>
       </c>
@@ -7060,7 +7059,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="8" t="s">
         <v>362</v>
       </c>
@@ -7077,7 +7076,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
         <v>362</v>
       </c>
@@ -7094,7 +7093,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="8" t="s">
         <v>362</v>
       </c>
@@ -7111,7 +7110,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="8" t="s">
         <v>362</v>
       </c>
@@ -7128,7 +7127,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
         <v>362</v>
       </c>
@@ -7145,7 +7144,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>362</v>
       </c>
@@ -7162,7 +7161,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" ht="216" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>362</v>
       </c>
@@ -7179,7 +7178,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>362</v>
       </c>
@@ -7196,7 +7195,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>362</v>
       </c>
@@ -7213,7 +7212,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>362</v>
       </c>
@@ -7230,7 +7229,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>362</v>
       </c>
@@ -7247,7 +7246,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>362</v>
       </c>
@@ -7264,7 +7263,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>362</v>
       </c>
@@ -7281,7 +7280,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>362</v>
       </c>
@@ -7298,7 +7297,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>362</v>
       </c>
@@ -7315,7 +7314,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>362</v>
       </c>
@@ -7332,7 +7331,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>362</v>
       </c>
@@ -7349,7 +7348,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>362</v>
       </c>
@@ -7366,7 +7365,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>362</v>
       </c>
@@ -7383,7 +7382,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>362</v>
       </c>
@@ -7400,7 +7399,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>362</v>
       </c>
@@ -7417,7 +7416,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="10" t="s">
         <v>362</v>
       </c>
@@ -7434,7 +7433,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="10" t="s">
         <v>362</v>
       </c>
@@ -7451,7 +7450,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="10" t="s">
         <v>362</v>
       </c>
@@ -7468,7 +7467,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="8" t="s">
         <v>362</v>
       </c>
@@ -7485,7 +7484,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="8" t="s">
         <v>362</v>
       </c>
@@ -7502,7 +7501,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
         <v>362</v>
       </c>
@@ -7519,7 +7518,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="8" t="s">
         <v>362</v>
       </c>
@@ -7536,7 +7535,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="8" t="s">
         <v>362</v>
       </c>
@@ -7553,7 +7552,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="8" t="s">
         <v>362</v>
       </c>
@@ -7570,7 +7569,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="8" t="s">
         <v>362</v>
       </c>
@@ -7587,7 +7586,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="8" t="s">
         <v>362</v>
       </c>
@@ -7604,7 +7603,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>362</v>
       </c>
@@ -7621,7 +7620,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>362</v>
       </c>
@@ -7638,7 +7637,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>362</v>
       </c>
@@ -7655,7 +7654,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>362</v>
       </c>
@@ -7672,7 +7671,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>362</v>
       </c>
@@ -7689,7 +7688,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>362</v>
       </c>
@@ -7706,7 +7705,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>362</v>
       </c>
@@ -7723,7 +7722,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>362</v>
       </c>
@@ -7740,7 +7739,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="8" t="s">
         <v>362</v>
       </c>
@@ -7757,7 +7756,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="8" t="s">
         <v>362</v>
       </c>
@@ -7774,7 +7773,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="8" t="s">
         <v>362</v>
       </c>
@@ -7791,7 +7790,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="261" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="8" t="s">
         <v>362</v>
       </c>
@@ -7808,7 +7807,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="8" t="s">
         <v>362</v>
       </c>
@@ -7825,7 +7824,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="261" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="8" t="s">
         <v>362</v>
       </c>
@@ -7842,7 +7841,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="8" t="s">
         <v>362</v>
       </c>
@@ -7859,7 +7858,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="10" t="s">
         <v>362</v>
       </c>
@@ -7876,7 +7875,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="10" t="s">
         <v>362</v>
       </c>
@@ -7893,7 +7892,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="10" t="s">
         <v>362</v>
       </c>
@@ -7910,7 +7909,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="261" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="10" t="s">
         <v>362</v>
       </c>
@@ -7927,7 +7926,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="10" t="s">
         <v>362</v>
       </c>
@@ -7944,7 +7943,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="261" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="10" t="s">
         <v>362</v>
       </c>
@@ -7961,7 +7960,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="10" t="s">
         <v>362</v>
       </c>
@@ -7978,7 +7977,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>362</v>
       </c>
@@ -7995,7 +7994,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>362</v>
       </c>
@@ -8012,7 +8011,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>362</v>
       </c>
@@ -8029,7 +8028,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>362</v>
       </c>
@@ -8046,7 +8045,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>362</v>
       </c>
@@ -8064,312 +8063,317 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E244" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="EMO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D313330E-9F3A-40CB-814C-B0D03F27DB97}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="66" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="58.26953125" customWidth="1"/>
-    <col min="7" max="7" width="79.7265625" customWidth="1"/>
+    <col min="1" max="1" width="66" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="58.21875" customWidth="1"/>
+    <col min="6" max="6" width="79.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>600</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>603</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>600</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
+    <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>605</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>612</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>599</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>605</v>
-      </c>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>602</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>601</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>609</v>
-      </c>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>586</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>585</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>587</v>
-      </c>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>591</v>
-      </c>
-      <c r="F7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>593</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>594</v>
-      </c>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>596</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>597</v>
-      </c>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>607</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>608</v>
-      </c>
-      <c r="F10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="18" t="s">
+    <row r="11" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>615</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="F11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="348" x14ac:dyDescent="0.35">
-      <c r="B12" s="18" t="s">
+    <row r="12" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>627</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>628</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="18" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>625</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>631</v>
-      </c>
-      <c r="F13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>630</v>
       </c>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="18" t="s">
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>618</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>617</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>614</v>
-      </c>
-      <c r="F14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="232" x14ac:dyDescent="0.35">
-      <c r="B15" s="18" t="s">
+    <row r="15" spans="1:6" ht="216" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>624</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>623</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>624</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>621</v>
-      </c>
-      <c r="F15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="261" x14ac:dyDescent="0.35">
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="1:6" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>619</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>620</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>626</v>
-      </c>
-      <c r="F16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="17"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="17"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="17"/>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/evaluation_files/EMO, POLICY & VAS QA_updated.xlsx
+++ b/evaluation_files/EMO, POLICY & VAS QA_updated.xlsx
@@ -5,20 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhammad.s.safian\OneDrive - Avanade\Project\MAIN_PROJECT\_avanade_main\_avanade_main\_01_prudential\PRUHK-AgenticRAG-V4\evaluation_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://avanade-my.sharepoint.com/personal/aina_rahim_avanade_com/Documents/Microsoft Teams Chat Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147EC42E-6D72-4B05-BEFF-67AFB9D816F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7461B37-1A06-431D-B135-E67A05D2325C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29055" yWindow="16125" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$244</definedName>
-  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="648">
   <si>
     <t>Folder</t>
   </si>
@@ -3454,12 +3451,54 @@
     <t>The Treatment Sure offers Global Expert Medical Opinion and Medical Concierge services… If the insured person chooses to receive treatment abroad, they will be responsible for all fees and charges required for travel and accommodation and related items
 The amount you can claim for treatment expenses is subject to the benefit limit of your plan… You will need to get our pre-authorisation before your treatment.</t>
   </si>
+  <si>
+    <t>Does Encash Hospital Cash Savings Insurance provide death benefit?</t>
+  </si>
+  <si>
+    <t>Yes, it pays a death benefit equal to current sum assured and terminal bonus</t>
+  </si>
+  <si>
+    <t>We will pay 100% of the current sum assured and terminal bonus as the Death Benefit</t>
+  </si>
+  <si>
+    <t>Can I reduce my deductible under PremierFlex Medical Plan?</t>
+  </si>
+  <si>
+    <t>You can gear up your protection by reducing your deductible once in your lifetime</t>
+  </si>
+  <si>
+    <t>Yes, you can reduce it once in your lifetime at specified ages</t>
+  </si>
+  <si>
+    <t>Can I use Medical Green Channel outside Mainland China?</t>
+  </si>
+  <si>
+    <t>No, it applies only to selected hospitals in Mainland China</t>
+  </si>
+  <si>
+    <t>Selected hospitals in Mainland China</t>
+  </si>
+  <si>
+    <t>For PruHealth VHIS VIP Plan, are value-added services guaranteed for life?</t>
+  </si>
+  <si>
+    <t>No, they are subject to terms and conditions</t>
+  </si>
+  <si>
+    <t>Does PRUmyhealth prestige medical plan include outpatient benefits?</t>
+  </si>
+  <si>
+    <t>Outpatient benefits are available through a designated supplementary benefit</t>
+  </si>
+  <si>
+    <t>You can top up your plan with our tailored outpatient benefit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3478,6 +3517,19 @@
       <color rgb="FFFAFAFA"/>
       <name val="Source Sans Pro"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3551,7 +3603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3586,14 +3638,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3611,6 +3662,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3898,23 +3953,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E244"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B9:B10"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
-    <col min="2" max="2" width="53.5546875" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
-    <col min="4" max="4" width="54.44140625" customWidth="1"/>
-    <col min="5" max="5" width="201.77734375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.54296875" customWidth="1"/>
+    <col min="2" max="2" width="53.54296875" customWidth="1"/>
+    <col min="3" max="3" width="34.54296875" customWidth="1"/>
+    <col min="4" max="4" width="54.453125" customWidth="1"/>
+    <col min="5" max="5" width="201.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3931,7 +3985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -3948,7 +4002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -3965,7 +4019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -3982,7 +4036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -3999,7 +4053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -4016,7 +4070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -4033,7 +4087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -4050,7 +4104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -4067,7 +4121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -4084,7 +4138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -4101,7 +4155,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -4118,7 +4172,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -4135,7 +4189,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -4152,7 +4206,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
@@ -4169,7 +4223,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -4186,7 +4240,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -4203,7 +4257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
@@ -4220,7 +4274,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>48</v>
       </c>
@@ -4237,7 +4291,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>48</v>
       </c>
@@ -4254,7 +4308,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>48</v>
       </c>
@@ -4271,7 +4325,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>48</v>
       </c>
@@ -4288,7 +4342,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>48</v>
       </c>
@@ -4305,7 +4359,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
@@ -4322,7 +4376,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>48</v>
       </c>
@@ -4339,7 +4393,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>48</v>
       </c>
@@ -4356,7 +4410,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>48</v>
       </c>
@@ -4373,7 +4427,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>48</v>
       </c>
@@ -4390,7 +4444,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>48</v>
       </c>
@@ -4407,7 +4461,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>48</v>
       </c>
@@ -4424,7 +4478,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>48</v>
       </c>
@@ -4441,7 +4495,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>48</v>
       </c>
@@ -4458,7 +4512,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>48</v>
       </c>
@@ -4475,7 +4529,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>48</v>
       </c>
@@ -4492,7 +4546,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>48</v>
       </c>
@@ -4509,7 +4563,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>48</v>
       </c>
@@ -4526,7 +4580,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>48</v>
       </c>
@@ -4543,7 +4597,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>48</v>
       </c>
@@ -4560,7 +4614,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>48</v>
       </c>
@@ -4577,7 +4631,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>48</v>
       </c>
@@ -4594,7 +4648,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>48</v>
       </c>
@@ -4611,7 +4665,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>48</v>
       </c>
@@ -4628,7 +4682,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>48</v>
       </c>
@@ -4645,7 +4699,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>48</v>
       </c>
@@ -4662,7 +4716,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>48</v>
       </c>
@@ -4679,7 +4733,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>48</v>
       </c>
@@ -4696,7 +4750,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>48</v>
       </c>
@@ -4713,7 +4767,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>48</v>
       </c>
@@ -4730,7 +4784,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>48</v>
       </c>
@@ -4747,7 +4801,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>48</v>
       </c>
@@ -4764,7 +4818,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>48</v>
       </c>
@@ -4781,7 +4835,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>48</v>
       </c>
@@ -4798,7 +4852,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>48</v>
       </c>
@@ -4815,7 +4869,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>48</v>
       </c>
@@ -4832,7 +4886,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>48</v>
       </c>
@@ -4849,7 +4903,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>48</v>
       </c>
@@ -4866,7 +4920,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>48</v>
       </c>
@@ -4883,7 +4937,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>48</v>
       </c>
@@ -4900,7 +4954,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>48</v>
       </c>
@@ -4917,7 +4971,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>48</v>
       </c>
@@ -4934,7 +4988,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>48</v>
       </c>
@@ -4951,7 +5005,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>48</v>
       </c>
@@ -4968,7 +5022,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>48</v>
       </c>
@@ -4985,7 +5039,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>48</v>
       </c>
@@ -5002,7 +5056,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>48</v>
       </c>
@@ -5019,7 +5073,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>48</v>
       </c>
@@ -5036,7 +5090,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>48</v>
       </c>
@@ -5053,7 +5107,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>48</v>
       </c>
@@ -5070,7 +5124,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
         <v>48</v>
       </c>
@@ -5087,7 +5141,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
         <v>48</v>
       </c>
@@ -5104,7 +5158,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>180</v>
       </c>
@@ -5121,7 +5175,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>180</v>
       </c>
@@ -5138,7 +5192,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>180</v>
       </c>
@@ -5155,7 +5209,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>180</v>
       </c>
@@ -5172,7 +5226,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>180</v>
       </c>
@@ -5189,7 +5243,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>180</v>
       </c>
@@ -5206,7 +5260,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>180</v>
       </c>
@@ -5223,7 +5277,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>180</v>
       </c>
@@ -5240,7 +5294,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>180</v>
       </c>
@@ -5257,7 +5311,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>180</v>
       </c>
@@ -5274,7 +5328,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>180</v>
       </c>
@@ -5291,7 +5345,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>180</v>
       </c>
@@ -5308,7 +5362,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="203" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>180</v>
       </c>
@@ -5325,7 +5379,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="203" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>180</v>
       </c>
@@ -5342,7 +5396,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>180</v>
       </c>
@@ -5359,7 +5413,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>180</v>
       </c>
@@ -5376,7 +5430,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>180</v>
       </c>
@@ -5393,7 +5447,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="203" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>180</v>
       </c>
@@ -5410,7 +5464,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="216" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>180</v>
       </c>
@@ -5427,7 +5481,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="216" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>180</v>
       </c>
@@ -5444,7 +5498,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>180</v>
       </c>
@@ -5461,7 +5515,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>180</v>
       </c>
@@ -5478,7 +5532,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="s">
         <v>180</v>
       </c>
@@ -5495,7 +5549,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="10" t="s">
         <v>180</v>
       </c>
@@ -5512,7 +5566,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="s">
         <v>180</v>
       </c>
@@ -5529,7 +5583,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="10" t="s">
         <v>180</v>
       </c>
@@ -5546,7 +5600,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
         <v>180</v>
       </c>
@@ -5563,7 +5617,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="10" t="s">
         <v>180</v>
       </c>
@@ -5580,7 +5634,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
         <v>180</v>
       </c>
@@ -5597,7 +5651,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="10" t="s">
         <v>180</v>
       </c>
@@ -5614,7 +5668,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="10" t="s">
         <v>180</v>
       </c>
@@ -5631,7 +5685,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
         <v>180</v>
       </c>
@@ -5648,7 +5702,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
         <v>180</v>
       </c>
@@ -5665,7 +5719,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
         <v>180</v>
       </c>
@@ -5682,7 +5736,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
         <v>180</v>
       </c>
@@ -5699,7 +5753,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A106" s="8" t="s">
         <v>180</v>
       </c>
@@ -5716,7 +5770,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="8" t="s">
         <v>180</v>
       </c>
@@ -5733,7 +5787,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="8" t="s">
         <v>180</v>
       </c>
@@ -5750,7 +5804,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="8" t="s">
         <v>180</v>
       </c>
@@ -5767,7 +5821,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A110" s="8" t="s">
         <v>180</v>
       </c>
@@ -5784,7 +5838,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
         <v>180</v>
       </c>
@@ -5801,7 +5855,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A112" s="8" t="s">
         <v>180</v>
       </c>
@@ -5818,7 +5872,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A113" s="6" t="s">
         <v>180</v>
       </c>
@@ -5835,7 +5889,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
         <v>180</v>
       </c>
@@ -5852,7 +5906,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A115" s="6" t="s">
         <v>180</v>
       </c>
@@ -5869,7 +5923,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
         <v>180</v>
       </c>
@@ -5886,7 +5940,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>180</v>
       </c>
@@ -5903,7 +5957,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>180</v>
       </c>
@@ -5920,7 +5974,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>180</v>
       </c>
@@ -5937,7 +5991,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>180</v>
       </c>
@@ -5954,7 +6008,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
         <v>180</v>
       </c>
@@ -5971,7 +6025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="6" t="s">
         <v>180</v>
       </c>
@@ -5988,7 +6042,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A123" s="12" t="s">
         <v>180</v>
       </c>
@@ -6005,7 +6059,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="12" t="s">
         <v>180</v>
       </c>
@@ -6022,7 +6076,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="12" t="s">
         <v>180</v>
       </c>
@@ -6039,7 +6093,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A126" s="12" t="s">
         <v>180</v>
       </c>
@@ -6056,7 +6110,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A127" s="12" t="s">
         <v>180</v>
       </c>
@@ -6073,7 +6127,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="12" t="s">
         <v>180</v>
       </c>
@@ -6090,7 +6144,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="12" t="s">
         <v>180</v>
       </c>
@@ -6107,7 +6161,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A130" s="12" t="s">
         <v>180</v>
       </c>
@@ -6124,7 +6178,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A131" s="12" t="s">
         <v>180</v>
       </c>
@@ -6141,7 +6195,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="12" t="s">
         <v>180</v>
       </c>
@@ -6158,7 +6212,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
         <v>180</v>
       </c>
@@ -6175,7 +6229,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
         <v>180</v>
       </c>
@@ -6192,7 +6246,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
         <v>180</v>
       </c>
@@ -6209,7 +6263,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
         <v>180</v>
       </c>
@@ -6226,7 +6280,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
         <v>180</v>
       </c>
@@ -6243,7 +6297,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
         <v>180</v>
       </c>
@@ -6260,7 +6314,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
         <v>180</v>
       </c>
@@ -6277,7 +6331,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
         <v>180</v>
       </c>
@@ -6294,7 +6348,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
         <v>180</v>
       </c>
@@ -6311,7 +6365,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
         <v>180</v>
       </c>
@@ -6328,7 +6382,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A143" s="8" t="s">
         <v>362</v>
       </c>
@@ -6345,7 +6399,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="8" t="s">
         <v>362</v>
       </c>
@@ -6362,7 +6416,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="374.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="377" x14ac:dyDescent="0.35">
       <c r="A145" s="8" t="s">
         <v>362</v>
       </c>
@@ -6379,7 +6433,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A146" s="8" t="s">
         <v>362</v>
       </c>
@@ -6396,7 +6450,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A147" s="8" t="s">
         <v>362</v>
       </c>
@@ -6413,7 +6467,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="374.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" ht="377" x14ac:dyDescent="0.35">
       <c r="A148" s="8" t="s">
         <v>362</v>
       </c>
@@ -6430,7 +6484,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="8" t="s">
         <v>362</v>
       </c>
@@ -6447,7 +6501,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A150" s="8" t="s">
         <v>362</v>
       </c>
@@ -6464,7 +6518,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="374.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="377" x14ac:dyDescent="0.35">
       <c r="A151" s="8" t="s">
         <v>362</v>
       </c>
@@ -6481,7 +6535,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="8" t="s">
         <v>362</v>
       </c>
@@ -6498,7 +6552,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="374.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="377" x14ac:dyDescent="0.35">
       <c r="A153" s="8" t="s">
         <v>362</v>
       </c>
@@ -6515,7 +6569,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="374.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="377" x14ac:dyDescent="0.35">
       <c r="A154" s="8" t="s">
         <v>362</v>
       </c>
@@ -6532,7 +6586,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="374.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="377" x14ac:dyDescent="0.35">
       <c r="A155" s="8" t="s">
         <v>362</v>
       </c>
@@ -6549,7 +6603,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A156" s="8" t="s">
         <v>362</v>
       </c>
@@ -6566,7 +6620,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A157" s="8" t="s">
         <v>362</v>
       </c>
@@ -6583,7 +6637,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A158" s="8" t="s">
         <v>362</v>
       </c>
@@ -6600,7 +6654,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A159" s="14" t="s">
         <v>362</v>
       </c>
@@ -6617,7 +6671,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A160" s="14" t="s">
         <v>362</v>
       </c>
@@ -6634,7 +6688,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A161" s="14" t="s">
         <v>362</v>
       </c>
@@ -6651,7 +6705,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A162" s="14" t="s">
         <v>362</v>
       </c>
@@ -6668,7 +6722,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A163" s="14" t="s">
         <v>362</v>
       </c>
@@ -6685,7 +6739,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A164" s="14" t="s">
         <v>362</v>
       </c>
@@ -6702,7 +6756,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A165" s="14" t="s">
         <v>362</v>
       </c>
@@ -6719,7 +6773,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A166" s="14" t="s">
         <v>362</v>
       </c>
@@ -6736,7 +6790,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A167" s="14" t="s">
         <v>362</v>
       </c>
@@ -6753,7 +6807,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A168" s="10" t="s">
         <v>362</v>
       </c>
@@ -6770,7 +6824,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A169" s="10" t="s">
         <v>362</v>
       </c>
@@ -6787,7 +6841,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A170" s="10" t="s">
         <v>362</v>
       </c>
@@ -6804,7 +6858,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A171" s="10" t="s">
         <v>362</v>
       </c>
@@ -6821,7 +6875,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A172" s="10" t="s">
         <v>362</v>
       </c>
@@ -6838,7 +6892,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A173" s="10" t="s">
         <v>362</v>
       </c>
@@ -6855,7 +6909,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" ht="261" x14ac:dyDescent="0.35">
       <c r="A174" s="10" t="s">
         <v>362</v>
       </c>
@@ -6872,7 +6926,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="10" t="s">
         <v>362</v>
       </c>
@@ -6889,7 +6943,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A176" s="10" t="s">
         <v>362</v>
       </c>
@@ -6906,7 +6960,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A177" s="6" t="s">
         <v>362</v>
       </c>
@@ -6923,7 +6977,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A178" s="6" t="s">
         <v>362</v>
       </c>
@@ -6940,7 +6994,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A179" s="6" t="s">
         <v>362</v>
       </c>
@@ -6957,7 +7011,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A180" s="6" t="s">
         <v>362</v>
       </c>
@@ -6974,7 +7028,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A181" s="6" t="s">
         <v>362</v>
       </c>
@@ -6991,7 +7045,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A182" s="6" t="s">
         <v>362</v>
       </c>
@@ -7008,7 +7062,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A183" s="6" t="s">
         <v>362</v>
       </c>
@@ -7025,7 +7079,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A184" s="8" t="s">
         <v>362</v>
       </c>
@@ -7042,7 +7096,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A185" s="8" t="s">
         <v>362</v>
       </c>
@@ -7059,7 +7113,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A186" s="8" t="s">
         <v>362</v>
       </c>
@@ -7076,7 +7130,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A187" s="8" t="s">
         <v>362</v>
       </c>
@@ -7093,7 +7147,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A188" s="8" t="s">
         <v>362</v>
       </c>
@@ -7110,7 +7164,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A189" s="8" t="s">
         <v>362</v>
       </c>
@@ -7127,7 +7181,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A190" s="8" t="s">
         <v>362</v>
       </c>
@@ -7144,7 +7198,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
         <v>362</v>
       </c>
@@ -7161,7 +7215,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="216" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
         <v>362</v>
       </c>
@@ -7178,7 +7232,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
         <v>362</v>
       </c>
@@ -7195,7 +7249,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
         <v>362</v>
       </c>
@@ -7212,7 +7266,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
         <v>362</v>
       </c>
@@ -7229,7 +7283,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A196" s="4" t="s">
         <v>362</v>
       </c>
@@ -7246,7 +7300,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
         <v>362</v>
       </c>
@@ -7263,7 +7317,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
         <v>362</v>
       </c>
@@ -7280,7 +7334,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
         <v>362</v>
       </c>
@@ -7297,7 +7351,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A200" s="6" t="s">
         <v>362</v>
       </c>
@@ -7314,7 +7368,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A201" s="6" t="s">
         <v>362</v>
       </c>
@@ -7331,7 +7385,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A202" s="6" t="s">
         <v>362</v>
       </c>
@@ -7348,7 +7402,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A203" s="6" t="s">
         <v>362</v>
       </c>
@@ -7365,7 +7419,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A204" s="6" t="s">
         <v>362</v>
       </c>
@@ -7382,7 +7436,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A205" s="6" t="s">
         <v>362</v>
       </c>
@@ -7399,7 +7453,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A206" s="6" t="s">
         <v>362</v>
       </c>
@@ -7416,7 +7470,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A207" s="10" t="s">
         <v>362</v>
       </c>
@@ -7433,7 +7487,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A208" s="10" t="s">
         <v>362</v>
       </c>
@@ -7450,7 +7504,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A209" s="10" t="s">
         <v>362</v>
       </c>
@@ -7467,7 +7521,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" s="8" t="s">
         <v>362</v>
       </c>
@@ -7484,7 +7538,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A211" s="8" t="s">
         <v>362</v>
       </c>
@@ -7501,7 +7555,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A212" s="8" t="s">
         <v>362</v>
       </c>
@@ -7518,7 +7572,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A213" s="8" t="s">
         <v>362</v>
       </c>
@@ -7535,7 +7589,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A214" s="8" t="s">
         <v>362</v>
       </c>
@@ -7552,7 +7606,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A215" s="8" t="s">
         <v>362</v>
       </c>
@@ -7569,7 +7623,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A216" s="8" t="s">
         <v>362</v>
       </c>
@@ -7586,7 +7640,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A217" s="8" t="s">
         <v>362</v>
       </c>
@@ -7603,7 +7657,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
         <v>362</v>
       </c>
@@ -7620,7 +7674,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
         <v>362</v>
       </c>
@@ -7637,7 +7691,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
         <v>362</v>
       </c>
@@ -7654,7 +7708,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="s">
         <v>362</v>
       </c>
@@ -7671,7 +7725,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
         <v>362</v>
       </c>
@@ -7688,7 +7742,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
         <v>362</v>
       </c>
@@ -7705,7 +7759,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="s">
         <v>362</v>
       </c>
@@ -7722,7 +7776,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A225" s="4" t="s">
         <v>362</v>
       </c>
@@ -7739,7 +7793,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A226" s="8" t="s">
         <v>362</v>
       </c>
@@ -7756,7 +7810,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A227" s="8" t="s">
         <v>362</v>
       </c>
@@ -7773,7 +7827,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A228" s="8" t="s">
         <v>362</v>
       </c>
@@ -7790,7 +7844,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" ht="261" x14ac:dyDescent="0.35">
       <c r="A229" s="8" t="s">
         <v>362</v>
       </c>
@@ -7807,7 +7861,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A230" s="8" t="s">
         <v>362</v>
       </c>
@@ -7824,7 +7878,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" ht="261" x14ac:dyDescent="0.35">
       <c r="A231" s="8" t="s">
         <v>362</v>
       </c>
@@ -7841,7 +7895,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A232" s="8" t="s">
         <v>362</v>
       </c>
@@ -7858,7 +7912,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A233" s="10" t="s">
         <v>362</v>
       </c>
@@ -7875,7 +7929,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A234" s="10" t="s">
         <v>362</v>
       </c>
@@ -7892,7 +7946,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A235" s="10" t="s">
         <v>362</v>
       </c>
@@ -7909,7 +7963,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" ht="261" x14ac:dyDescent="0.35">
       <c r="A236" s="10" t="s">
         <v>362</v>
       </c>
@@ -7926,7 +7980,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A237" s="10" t="s">
         <v>362</v>
       </c>
@@ -7943,7 +7997,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" ht="261" x14ac:dyDescent="0.35">
       <c r="A238" s="10" t="s">
         <v>362</v>
       </c>
@@ -7960,7 +8014,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A239" s="10" t="s">
         <v>362</v>
       </c>
@@ -7977,7 +8031,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A240" s="6" t="s">
         <v>362</v>
       </c>
@@ -7994,7 +8048,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A241" s="6" t="s">
         <v>362</v>
       </c>
@@ -8011,7 +8065,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A242" s="6" t="s">
         <v>362</v>
       </c>
@@ -8028,7 +8082,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A243" s="6" t="s">
         <v>362</v>
       </c>
@@ -8045,7 +8099,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A244" s="6" t="s">
         <v>362</v>
       </c>
@@ -8063,317 +8117,385 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E244" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="EMO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D313330E-9F3A-40CB-814C-B0D03F27DB97}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="66" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="58.21875" customWidth="1"/>
-    <col min="6" max="6" width="79.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="66" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="58.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="79.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>600</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>604</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="F2" s="17" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="17" t="s">
+        <v>581</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>605</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>599</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>605</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="C5" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>612</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>609</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="C8" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B9" s="17" t="s">
+        <v>581</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>586</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="C10" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="348" x14ac:dyDescent="0.35">
+      <c r="B12" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>585</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>593</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>594</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="C14" s="17" t="s">
+        <v>618</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+      <c r="B15" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>596</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>597</v>
-      </c>
-      <c r="C9" s="17" t="s">
+      <c r="C15" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>624</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="232" x14ac:dyDescent="0.35">
+      <c r="B16" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B17" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>607</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="C17" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B18" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>615</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>632</v>
-      </c>
-      <c r="C11" s="17" t="s">
+      <c r="C18" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B19" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>627</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>628</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="C19" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>625</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>631</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>630</v>
-      </c>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>617</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>614</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>618</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="216" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>624</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>621</v>
-      </c>
-      <c r="C15" s="17" t="s">
+      <c r="C20" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B21" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>620</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>626</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>619</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="16"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="16"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="16"/>
+      <c r="C21" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>647</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8382,6 +8504,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{5fae8262-b78e-4366-8929-a5d6aac95320}" enabled="1" method="Standard" siteId="{cf36141c-ddd7-45a7-b073-111f66d0b30c}" contentBits="0" removed="0"/>
+  <clbl:label id="{5fae8262-b78e-4366-8929-a5d6aac95320}" enabled="1" method="Standard" siteId="{cf36141c-ddd7-45a7-b073-111f66d0b30c}" removed="0"/>
 </clbl:labelList>
 </file>
--- a/evaluation_files/EMO, POLICY & VAS QA_updated.xlsx
+++ b/evaluation_files/EMO, POLICY & VAS QA_updated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://avanade-my.sharepoint.com/personal/aina_rahim_avanade_com/Documents/Microsoft Teams Chat Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\458840\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7461B37-1A06-431D-B135-E67A05D2325C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2388A05-791A-4F78-A108-3F5075F352E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="648">
   <si>
     <t>Folder</t>
   </si>
@@ -3136,88 +3136,19 @@
 throughout your lifetime.</t>
   </si>
   <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>chunk match</t>
+  </si>
+  <si>
+    <t>document uri</t>
+  </si>
+  <si>
     <t>General QA</t>
   </si>
   <si>
-    <t>Product specific QA</t>
-  </si>
-  <si>
-    <t>Policy specific QA</t>
-  </si>
-  <si>
-    <t>Scenarios</t>
-  </si>
-  <si>
-    <t>pruhealth-corechoice-medical-plan-product-brochure</t>
-  </si>
-  <si>
-    <t>What is the annual benefit limit under CoreChoice?</t>
-  </si>
-  <si>
-    <t>It is a certified VHIS Standard Plan that provides worldwide medical protection with no overall lifetime benefit limit, guaranteed renewable up to age 100</t>
-  </si>
-  <si>
-    <t>The annual benefit limit is HKD 420,000</t>
-  </si>
-  <si>
-    <t>PRUHealth CoreChoice Medical Plan is a certified plan under the
-Voluntary Health Insurance Scheme (VHIS) that gives you a
-choice by covering the eligible medical treatment expenses. There
-is no overall lifetime benefit limit and we guarantee that you can
-renew the plan up to age 100</t>
-  </si>
-  <si>
-    <t>Annual benefit limit (applicable to items I – III): HKD 420,000</t>
-  </si>
-  <si>
-    <t>Who is eligible to apply for CoreChoice?</t>
-  </si>
-  <si>
-    <t>Hong Kong residents aged from 15 days to 80 years old</t>
-  </si>
-  <si>
-    <t>The plan is designed to give the person covered by the plan (the “insured person”), who must be a Hong Kong
-resident aged from 15 days – 80 years old,</t>
-  </si>
-  <si>
-    <t>Does the PRUHealth CoreChoice Medical Plan include Treatment Sure?</t>
-  </si>
-  <si>
-    <t>Yes, Treatment Sure is available as a value-added service for CoreChoice policyholders</t>
-  </si>
-  <si>
-    <t>Treatment Sure – Get back on the road to
-health with personalised medical advice from
-global experts
-If you are ill, medical experts’ guidance can help you
-make the right treatment decisions. This is why we
-offer the Treatment Sure, including second medical
-opinions and overseas medical concierge services. (page 8)</t>
-  </si>
-  <si>
-    <t>Is Treatment Sure part of the core insurance coverage or an additional service?</t>
-  </si>
-  <si>
-    <t>Treatment Sure is a value-added service, not part of the core medical coverage</t>
-  </si>
-  <si>
-    <t>The above value-added services do not form part of PRUHealth CoreChoice Medical Plan and you can find
-more details under “More about the value-added services” section below.</t>
-  </si>
-  <si>
-    <t>Tell me more about treatment sure for PRUHealth VHIS VIP Plan</t>
-  </si>
-  <si>
     <t>What's Treatment Sure?</t>
-  </si>
-  <si>
-    <t>What's Treatment Sure? (Authenticated policy holder for PRUmyhealth prestige medical plan)</t>
-  </si>
-  <si>
-    <t>prumyhealth-prestige-medical-plan-2025-product-brochure</t>
-  </si>
-  <si>
-    <t>Treatment Sure (webpage)</t>
   </si>
   <si>
     <t>Treatment Sure is a one-stop medical advisory service provided by Prudential in collaboration with its partner, Teladoc Health. This service includes:
@@ -3237,6 +3168,73 @@
 Hong Kong SAR: (852) 8229 2880
 Mainland China: (86) 400 920 6012
 Full details can be found in the [Treatment Sure document](gs://prudential-poc/vas/Treatment Sure.docx).</t>
+  </si>
+  <si>
+    <t>Skip links
+* Home
+* Health services
+* Value-added service &amp; support
+* Treatment Sure
+Treatment SureA one-stop global expert's second medical opinion and medical concierge service for overseas treatment
+What is Treatment Sure?When you receive a diagnosis, you may second guess it and may feel lost. These questions may run through your mind:
+* Is my diagnosis correct?
+* Whatâ€™s the most suitable treatment for my condition?
+* Where can I seek a second medical opinion to ensure Iâ€™m making the right decision?
+Treatment Sure aims to provide you with the answers, so you can have peace-of-mind.
+Treatment Sure is a one-stop medical advisory service provided by Teladoc Health, our partner provider. It offers you independent medical opinions from experts around the globe.
+Furthermore, should you require overseas treatment, our medical concierge can also facilitate it.
+Professional medical advisory
+Support from dedicated physician case managerYour dedicated physician case manager will answer any questions throughout your medical journey
+Professional team of physician case managersOver 3,000 doctors form our physician case manager team, providing you with attentive and personalised support.
+Comprehensive networkNetwork of over 50,000 global medical experts, covering more than 450 specialities and sub-specialties
+Wealth of experienceWith the wealth of experience, the service has helped more than 35 million customers from over 130 countries
+Support from dedicated physician case managerYour dedicated physician case manager will answer any questions throughout your medical journey
+Professional team of physician case managersOver 3,000 doctors form our physician case manager team, providing you with attentive and personalised support.
+Comprehensive networkNetwork of over 50,000 global medical experts, covering more than 450 specialities and sub-specialties
+Wealth of experienceWith the wealth of experience, the service has helped more than 35 million customers from over 130 countries
+Support from dedicated physician case managerYour dedicated physician case manager will answer any questions throughout your medical journey
+Professional team of physician case managersOver 3,000 doctors form our physician case manager team, providing you with attentive and personalised support.
+Comprehensive networkNetwork of over 50,000 global medical experts, covering more than 450 specialities and sub-specialties
+Wealth of experienceWith the wealth of experience, the service has helped more than 35 million customers from over 130 countries
+PreviousNext
+How Treatment Sure Service works?
+How Treatment Sureâ€™s second medical opinion service works?
+How medical concierge service works?
+Supports you throughoutevery step of the waySeeking second medical opinions from global experts* Step 1
+* Weâ€™ll assign you with a dedicated physician case manager who will guide you throughout your whole medical journey.
+* Step 2
+* Within 24 hours after service activation, your physician case manager will call you to understand your medical condition.
+* Step 3
+* Based on your medical condition, your physician case manager will identify suitable experts around the globe and seek their medical opinions.
+* Step 4
+* Youâ€™ll receive a personalised second medical opinion report, in your language. Depending on the complexity of your condition, this may take anywhere from a few days to two weeks. Your physician case manager will call you to explain your report and answer any questions.
+Supporting you through our medical concierge for oversea treatment* Step 5
+* If you wish to seek treatment overseas, your physician case manager will provide you with overseas specialist options.
+* Step 6
+* Your physician case manager will speak to your selected specialist, as well as arrange any appointments and translation services you may need.
+* Step 7
+* Your physician case manager will call you to follow-up on your recovery after your treatment and offer any guidance you may require as you recover.
+Learn moreExpand all
+A story from a real customerIs Treatment Sure available to me?Would like to activate the service?You can activate via
+Online enrolment portal
+Please click here
+Treatment Sure service hotline\* (24-hour, 365-day service)
+Call us by one of these numbers.
+* Hong Kong SAR: (852) 8229 2880
+* Mainland China: (86) 400 920 6012
+You may be required to pay the IDD/international roaming service fee to the telecommunications service provider if you call from outside the locations above (including Macau).
+Expand all
+Terms and ConditionsDisclaimerPRUHealth Team is dedicated to understanding your health needs and delivering value-added service navigation.
+Text via WhatsApp Messager or WeChat to speak with our professional nurse team.</t>
+  </si>
+  <si>
+    <t>gs://guide-care-poc/vas/Treatment Sure.docx</t>
+  </si>
+  <si>
+    <t>Product specific QA</t>
+  </si>
+  <si>
+    <t>Tell me more about treatment sure for PRUHealth VHIS VIP Plan</t>
   </si>
   <si>
     <t>For the PRUHealth VHIS VIP Plan, the Treatment Sure service offers the following key benefits:
@@ -3260,20 +3258,111 @@
 For further assistance, you can refer to the details in the official document or contact the service hotline.</t>
   </si>
   <si>
-    <t>Treatment Sure
-A one-stop global expert's second medical opinion and medical concierge service for overseas treatment
-What is Treatment Sure?
-When you receive a diagnosis, you may second guess it and may feel lost. These questions may run through your mind:
-●	Is my diagnosis correct?
-●	What’s the most suitable treatment for my condition?
-●	Where can I seek a second medical opinion to ensure I’m making the right decision?
-Treatment Sure aims to provide you with the answers, so you can have peace-of-mind.</t>
-  </si>
-  <si>
-    <t>Does the Medical Expenses Direct Billing Service mean I don’t have to pay anything upfront as a CoreChoice policyholder?</t>
-  </si>
-  <si>
-    <t>Yes, if you use Prudential’s medical network and get pre-authorisation, Prudential settles eligible medical expenses directly with the provider</t>
+    <t>Reasonable and Customary Charges
+We will only cover charges or expenses which we believe are 
+Reasonable and Customary. That means that they must be 
+Medically Necessary (there are more details below) and do 
+not exceed the general range of charges by service providers 
+where the charge is incurred for similar treatment, services or 
+supplies for people with similar conditions, e.g. of the same 
+sex and similar age, for a similar disability, as we reasonably 
+determine in utmost good faith.
+The Reasonable and Customary charges will never in any 
+circumstance exceed the actual charges incurred. We may 
+exercise our right to determine whether the charges for 
+treatment, medical services and supplies are regarded as 
+Reasonable and Customary with reference but not limited to 
+treatment or service fee statistics and surveys in the insurance 
+or medical industry; internal or industry claim statistics; 
+gazette published by the government; and/or another source 
+of reference where the treatments, services or supplies are 
+provided.
+We may exercise our right to adjust any benefit payable 
+in relation to any charges which are not Reasonable and 
+Customary.
+Medically Necessary
+A medical service, including treatment and diagnostic
+procedure, is Medically Necessary if:
+â€¢ it requires the expertise of, or be referred by, a registered 
+doctor;
+â€¢ it is consistent with the diagnosis and necessary for the 
+investigation and treatment of the disability;
+â€¢ it conforms to the standards of good and prudent 
+medical practice, and not rendered primarily for the 
+convenience or the comfort of the insured person, their 
+family, caretaker or the registered doctor;
+â€¢ it is performed in the setting that is most appropriate in 
+the circumstances and in accordance with the generally 
+accepted standards of medical practice for the medical 
+services; and
+â€¢ it is performed at the most appropriate level which, in the 
+prudent professional judgement of the registered doctor, 
+can be safely and effectively provided to the insured 
+person.
+These are some of the circumstances in which we believe a 
+hospital stay is Medically Necessary. It is not an exclusive list:
+â€¢ the insured person is having an emergency that needs 
+urgent hospital treatment;
+â€¢ surgery is performed under general anaesthesia;
+â€¢ equipment for surgery/procedure is available in hospital 
+and the procedure cannot be done on a day patient basis;
+â€¢ the insured person is concurrently suffering from another 
+severe disease or injury; and
+â€¢ the attending doctor believes, in their professional 
+judgement, that the insured person needs hospital-based 
+medical service; and that the length of hospital stay is 
+appropriate for the medical service concerned.
+VAT and GST
+Eligible expenses shall include the value-added taxes (â€œVATâ€) 
+and goods and services taxes (â€œGSTâ€) (if any) charged or 
+imposed on the expenses incurred for medical services.
+Termination of this plan
+We will terminate this plan when the first of these happens:
+â€¢ the insured person dies; or
+â€¢ you fail to pay your premium within 30 days from its due 
+date; or
+â€¢ we are no longer authorised under the Insurance 
+Ordinance to write or continue to write this plan; or
+â€¢ if this plan is a supplementary benefit, the basic plan 
+to which this plan attached is cancelled or surrendered. 
+If you wish to continue this plan, you may notify us in 
+writing before it expires.19
+More about the value-added services
+Medical Green Channel
+â€¢ Medical Green Channel is provided by an independent 
+third-party service provider. This service offers 
+priority booking for outpatient and/or hospitalisation 
+appointment at Medical Green Channelâ€™s selected 
+hospitals in Mainland China for the insured person of the 
+PRUHealth VHIS VIP Plan. 
+â€¢ Medical Green Channelâ€™s case managers and escort staff 
+are appointed by the service provider. 
+â€¢ The insured person is responsible for all registration fees, 
+diagnosis/treatment fees, examination fees, prescription 
+fees, hospitalisation fees, and all administration fees 
+and medical expenses incurred on their outpatient and/
+or hospitalisation services. The medical expenses the 
+insured person can claim are subject to the terms and 
+conditions, and the benefit limit of the insured personâ€™s 
+medical insurance plan.
+â€¢ Medical Green Channel is not suitable for an insured 
+person who has an acute medical condition, has been 
+involved in an accident, or has conditions requiring 
+emergency or immediate medical assistance.
+Treatment Sure
+â€¢ The Treatment Sure offers Global Expert Medical Opinion 
+and Medical Concierge services for the insured person 
+of PRUHealth VHIS VIP Plan. The service is suitable for 
+any non-emergency medical conditions (e.g.</t>
+  </si>
+  <si>
+    <t>gs://guide-care-poc/policy/pruhealth-vhis-vip-plan-en.pdf</t>
+  </si>
+  <si>
+    <t>Policy specific QA</t>
+  </si>
+  <si>
+    <t>What's Treatment Sure? (Authenticated policy holder for PRUmyhealth prestige medical plan)</t>
   </si>
   <si>
     <t>The Treatment Sure service is a value-added feature associated with the PRUmyhealth Prestige Medical Plan designed to provide you with enhanced medical support services. Here's what it includes:
@@ -3299,50 +3388,507 @@
 If you'd like more details about activating the service or seeking assistance, feel free to ask! The above information was sourced from Prudential's policy and service documents.</t>
   </si>
   <si>
-    <t>Treatment Sure (pg 25)
-• The Treatment Sure offers Global Expert Medical Opinion and Medical Concierge services for the life assured of the PRUmyhealth prestige medical plan. The service is suitable for any non-emergency medical conditions (e.g. cancer, gastroenteric diseases and orthopaedic issues) that needs a second opinion, but excludes:
-– Accidents and medical emergencies
-– Urgent or life-threatening conditions
-– Daily or common medical issues (such as colds, fever, flu and occasional rashes)
-– Chronic diseases management (such as chronic hepatitis, diabetes and high blood pressure), except for any complications of chronic diseases
-• The Global Expert Medical Opinion report is intended to supplement the information the life assured has already received from their attending doctor. It should not be used to replace their attending doctor’s recommendations. The final decision on their medical treatment arrangements must be made solely by the life assured.
-• The Medical Concierge is only available after the life assured has completed the Global Expert Medical Opinion. If the life assured chooses to receive treatment abroad, they will be responsible for all fees and charges for travel and accommodation and related items. The amount you can claim for treatment expenses is subject to the benefit limit of your plan.</t>
-  </si>
-  <si>
-    <t>Treatment Sure (pg 19)
-• The Treatment Sure offers Global Expert Medical Opinion
-and Medical Concierge services for the insured person
-of PRUHealth VHIS VIP Plan. The service is suitable for
-any non-emergency medical conditions (e.g. cancer,
-gastroenteric diseases and orthopaedic issues) that
-needs a second opinion, but excludes:
-– Accidents and medical emergencies
-– Urgent or life-threatening conditions
-– Daily or common medical issues (such as colds,
-fever, flu and occasional rashes)
-– Chronic diseases management (such as
-chronic hepatitis, diabetes and high blood pressure),
+    <t>For more details on termination of this plan, please refer to 
+the policy provisions.
+Termination of Designated Supplementary 
+Benefit
+We will terminate your Designated Supplementary Benefit 
+if your PRUmyhealth prestige medical plan terminates.
+24More about the value-added services
+Treatment Sure
+â€¢ The Treatment Sure offers Global Expert Medical Opinion 
+and Medical Concierge services for the life assured of 
+the PRUmyhealth prestige medical plan. The service is 
+suitable for any non-emergency medical conditions (e.g. 
+cancer, gastroenteric diseases and orthopaedic issues) 
+that needs a second opinion, but excludes:
+â€“ Accidents and medical emergencies
+â€“ Urgent or life-threatening conditions
+â€“ Daily or common medical issues (such as colds, fever, 
+flu and occasional rashes)
+â€“ Chronic diseases management (such as chronic 
+hepatitis, diabetes and high blood pressure), except 
+for any complications of chronic diseases
+â€¢ The Global Expert Medical Opinion report is intended 
+to supplement the information the life assured has 
+already received from their attending doctor. It 
+should not be used to replace their attending doctorâ€™s 
+recommendations. The final decision on their medical 
+treatment arrangements must be made solely by the life 
+assured. 
+â€¢ The Medical Concierge is only available after the life 
+assured has completed the Global Expert Medical 
+Opinion. If the life assured chooses to receive treatment 
+abroad, they will be responsible for all fees and charges 
+for travel and accommodation and related items. The 
+amount you can claim for treatment expenses is subject 
+to the benefit limit of your plan.
+Medical Green Channel 
+â€¢ Medical Green Channel is provided by an independent 
+third-party service provider. Their service offers 
+priority booking for outpatient and / or hospitalisation 
+appointment at Medical Green Channelâ€™s selected 
+hospitals in Mainland China for the life assured of the 
+PRUmyhealth prestige medical plan. 
+â€¢ Medical Green Channelâ€™s case managers and escort staff 
+are appointed by the service provider. 
+â€¢ The life assured is responsible for all registration fees, 
+diagnosis / treatment fees, examination fees, prescription 
+fees, hospitalisation fees, and all administration fees 
+and medical expenses incurred on their outpatient 
+and / or hospitalisation services. The medical expenses 
+the life assured can claim are subject to the terms and 
+conditions, and the benefit limit of the life assuredâ€™s 
+medical insurance plan.
+â€¢ Medical Green Channel is not suitable for a life assured 
+who has an acute medical condition, has been involved 
+in an accident, or has conditions requiring emergency or 
+immediate medical assistance.
+SmartAppoint Service
+â€¢ The SmartAppoint Service is an advanced policy 
+instruction, and not an enduring power of attorney (â€œEPAâ€) 
+or guardianship order. It does not appoint the designated 
+person as your attorney or guardian / committee. If you 
+have an EPA or a guardian / committee appointed, you 
+must not apply for this service.
+â€¢ The policyholder and the life assured must be the same 
+person.
+â€¢ The designated person must be a member of your family 
+who is age 18 or over, and must be your spouse, parent, 
+child, sibling, grandparent, grandchild, or any other 
+relationship we approve.
+â€¢ You must notify the designated person of the 
+instruction / change of instruction under this service.
+â€¢ When submitting a claim, the designated person needs 
+to provide medical reports from 2 registered medical 
+practitioners (1 from your attending doctor) confirming 
+your mental incapacity to our satisfaction, and any other 
+documents or evidence we may require.
+25Third-party services
+â€¢ Medical Expenses Direct Billing Service for hospitalisation 
+and day surgeries, Medical Green Channel, 
+Treatment Sure and 24-hour Worldwide Emergency 
+Assistance Services are provided by third-party service 
+provider(s) we have designated, and are subject to 
+their respective terms and conditions. We will not 
+be responsible for the accuracy of any third-party 
+information quoted above. 
+â€¢ We maintain sole discretion to change the scope of these 
+services (including the list of Medical Green Channel 
+hospitals) and the service provider(s) from time to time 
+without advance notice. We may also cease and / or 
+suspend these services at our sole discretion. 
+â€¢ We are not the service provider(s) for these services. 
+The relevant service provider(s) is(are) not our agent, 
+and vice versa. We make no representation, warranty 
+or undertaking as to the quality and availability of the 
+service and shall not accept any responsibility or liability 
+for the services provided by the service provider(s).</t>
+  </si>
+  <si>
+    <t>gs://guide-care-poc/policy/prumyhealth-prestige-medical-plan-2025-product-brochure.pdf</t>
+  </si>
+  <si>
+    <t>It is a certified VHIS Standard Plan that provides worldwide medical protection with no overall lifetime benefit limit, guaranteed renewable up to age 100</t>
+  </si>
+  <si>
+    <t>Medical Protection 
+PRUHealth 
+CoreChoice Medical Plan
+Get the core private healthcare cover you need with 
+no overall lifetime benefit limit, guaranteed renewable
+Certified VHIS Standard Plan2
+When you or your loved ones are ill or injured, the last thing you want is 
+having to choose between private hospital treatment and being 
+forced by money worries into treatment in a public hospital. 
+PRUHealth CoreChoice Medical Plan is a certified plan under the 
+Voluntary Health Insurance Scheme (VHIS) that gives you a 
+choice by covering the eligible medical treatment expenses. There 
+is no overall lifetime benefit limit and we guarantee that you can 
+renew the plan up to age 100. With this plan you can also apply for 
+tax deductions on your qualifying premiums of up to HKD 8,000 per 
+insured person each year.
+PRUHealth CoreChoice Medical Plan 3
+Plan highlights
+Medical Expenses 
+Direct Billing Service 
+for hospitalisation, day 
+surgeries and diagnostic 
+imaging tests
+Medical Green Channel â€“ 
+Get priority booking 
+for outpatient and/
+or hospitalisation 
+appointments at selected 
+hospitals in Mainland China
+24-hour Worldwide 
+Emergency Assistance 
+Services
+Guaranteed renewal 
+up to age 100
+Cover from diagnosis 
+to recovery â€“ no overall 
+lifetime benefit limit for 
+the plan
+Cover for unknown 
+pre-existing conditions
+including unknown 
+congenital conditions
+Tax deductions on your 
+qualifying premiums
+Know in advance
+how much you can claim
+towards treatment
+Value-added services to enhance your protection
+Treatment Sure â€“ 
+Get back on the road to health 
+with personalised medical 
+advice from global experts
+SmartAppoint Service â€“ 
+Set up an instruction 
+for a designated family member in 
+advance to file and access claims 
+on your behalf if you become 
+mentally incapacitated 4
+Guaranteed renewal up to age 100 
+PRUHealth CoreChoice Medical Plan covers your eligible medical costs right through from initial consultation to
+recovery, including: 
+We cover costs up to the itemised limits (there is a dollar limit on each benefit item) and an annual limit of 
+HKD 420,000. We restore your limits each year, so your claims in one year do not affect the protection in the next. 
+The plan is designed to give the person covered by the plan (the â€œinsured personâ€), who must be a Hong Kong 
+resident aged from 15 days â€“ 80 years old, worldwide protection against treatment costs for physical injury 
+and illness up to age 100 (except for psychiatric treatments which are covered in Hong Kong only).
+Immediate coverage â€“ no waiting period
+We protect you as soon as your plan takes effect (except cover for unknown pre-existing conditions including 
+unknown congenital conditions).
+The security of continuous protection
+Even if the insured personâ€™s medical history changes or there is a claim, you can renew the plan every year until 
+the insured person reaches age 100 â€“ guaranteed. We regularly review our premiums and we may adjust yours based 
+on our premium rate when you renew your plan. 
+You can find more details in the â€œPlan renewalâ€ and â€œChanges to benefitsâ€ under â€œMore about the planâ€ section below.
+Cover from diagnosis to recovery â€“ no overall lifetime benefit limit for the plan
+Hospitalisation and surgical benefits
+If the insured person needs hospital treatment, we will cover their basic hospital expenses including: 
+The benefits 
+ daily room and surgical expenses
+board expenses 
+doctorâ€™s visits specialistâ€™s fees
+intensive care surgery performed 
+at a clinic
+other hospital 
+expenses, such as 
+laboratory fees, 
+medicines and 
+injections
+hospital stay surgery rehabilitation5
+Prescribed non-surgical cancer treatments 
+Treating cancer effectively often needs 
+expensive and prolonged care. As part of this, 
+we cover prescribed non-surgical cancer
+treatments up to the itemised limits, including 
+radiotherapy, chemotherapy, targeted therapy, 
+immunotherapy and hormonal therapy, 
+whether the insured person chooses to have them 
+as an in-patient or at a clinic.
+Prescribed diagnostic imaging tests
+We meet the cost-sharing requirement of VHIS by 
+covering up to 70% of the eligible expenses
+(you will only need to pay 30% of the eligible 
+expenses, i.e. coinsurance), if the insured person 
+needs prescribed hospital or clinic-based 
+diagnostic imaging tests (including MRI, CT 
+and PET scans) recommended by the attending 
+registered doctor to identify medical conditions or 
+diseases.
+Pre-admission and follow-up outpatient 
+consultations
+The extra costs of treatment can so easily add up.</t>
+  </si>
+  <si>
+    <t>gs://guide-care-poc/policy/pruhealth-corechoice-medical-plan-product-brochure.pdf</t>
+  </si>
+  <si>
+    <t>What is the annual benefit limit under CoreChoice?</t>
+  </si>
+  <si>
+    <t>The annual benefit limit is HKD 420,000</t>
+  </si>
+  <si>
+    <t>Who is eligible to apply for CoreChoice?</t>
+  </si>
+  <si>
+    <t>Hong Kong residents aged from 15 days to 80 years old</t>
+  </si>
+  <si>
+    <t>Does the PRUHealth CoreChoice Medical Plan include Treatment Sure?</t>
+  </si>
+  <si>
+    <t>Yes, Treatment Sure is available as a value-added service for CoreChoice policyholders</t>
+  </si>
+  <si>
+    <t>These are some of the circumstances in which we believe 
+a hospital stay is Medically Necessary. It is not an exclusive list:
+â€¢ the insured person is having an emergency that needs 
+urgent hospital treatment; 
+â€¢ surgery is performed under general anaesthesia; 
+â€¢ equipment for surgery/procedure is available in hospital 
+and the procedure cannot be done on a day patient basis; 
+â€¢ the insured person is concurrently suffering from another 
+severe disease or injury; and
+â€¢ the attending registered doctor believes, in their 
+professional judgement, that the insured person needs 
+hospital-based medical service; and that the length of 
+hospital stay is appropriate for the medical 
+service concerned. 
+VAT and GST
+Eligible expenses shall include the value-added taxes (â€œVATâ€) 
+and goods and services taxes (â€œGSTâ€) (if any) charged or 
+imposed on the expenses incurred for medical services.
+Termination of this plan
+We will terminate this plan when the first of these happens:
+â€¢ the insured person dies; or
+â€¢ you fail to pay your premium within 30 days from its 
+due date; or
+â€¢ we are no longer authorised under the Insurance 
+Ordinance to write or continue to write this plan; or
+â€¢ if this plan is a supplementary benefit, the basic plan 
+to which this plan attached is cancelled or surrendered. 
+If you wish to continue this plan, you may notify us in 
+writing before it expires.14
+More about the value-added services 
+Medical Green Channel 
+â€¢ Medical Green Channel is provided by an independent 
+third-party service provider. Their service offers 
+priority booking for outpatient and/or hospitalisation 
+appointment at Medical Green Channelâ€™s selected 
+hospitals in Mainland China for the insured person of the 
+PRUHealth CoreChoice Medical Plan. 
+â€¢ Medical Green Channelâ€™s case managers and escort staff 
+are appointed by the service provider. 
+â€¢ The insured person is responsible for all registration fees, 
+diagnosis/treatment fees, examination fees, prescription 
+fees, hospitalisation fees, and all administration fees 
+and medical expenses incurred on their outpatient 
+and/or hospitalisation services. The medical expenses the 
+insured person can claim are subject to the terms and 
+conditions, and the benefit limit of the insured personâ€™s 
+medical insurance plan.
+â€¢ Medical Green Channel is not suitable for an insured 
+person who has an acute medical condition, has been 
+involved in an accident, or has conditions requiring 
+emergency or immediate medical assistance.
+Treatment Sure 
+â€¢ The Treatment Sure offers Global Expert Medical Opinion 
+and Medical Concierge services for the planâ€™s insured 
+person. The service is suitable for any non-emergency 
+medical conditions (e.g. cancer, gastroenteric diseases 
+and orthopaedic issues) that needs a second opinion, 
+but excludes:
+â€“ Accidents and medical emergencies
+â€“ Urgent or life-threatening conditions
+â€“ Daily or common medical issues (such as colds, fever, 
+flu and occasional rashes)
+â€“ Chronic diseases management (such as 
+chronic hepatitis, diabetes and high blood pressure), 
 except for any complications of chronic diseases
-• The Global Expert Medical Opinion report is intended
-to supplement the information the insured person
-has already received from their attending doctor. It
-should not be used to replace their attending doctor’s
-recommendations. The final decision on the medical
-treatment arrangement must be made solely by the
+â€¢ The Global Expert Medical Opinion report is intended 
+to supplement the information the insured person 
+has already received from their attending doctor. It 
+should not be used to replace their attending doctorâ€™s 
+recommendations. The final decision on the medical 
+treatment arrangement must be made solely by the 
 insured person.
-• The Medical Concierge is only available after the insured
-person has completed the Global Expert Medical
-Opinion. If the insured person chooses to receive
-treatment abroad, they will be responsible for all fees
-and charges required for travel and accommodation and
-related items. The amount you can claim for treatment
-expenses is subject to the benefit limit of your plan.</t>
-  </si>
-  <si>
-    <t>pruhealth-vhis-vip-plan-en</t>
-  </si>
-  <si>
-    <t>Prudential will settle the pre-approved medical expenses to the medical network provider, so you don’t need to pay for the pre-approved medical expenses by yourself and worry about claim procedure (page 3)</t>
+â€¢ The Medical Concierge is only available after the insured 
+person has completed the Global Expert Medical 
+Opinion. If the insured person chooses to receive 
+treatment abroad, they will be responsible for all fees 
+and charges required for travel and accommodation and 
+related items. The amount you can claim for treatment 
+expenses is subject to the benefit limit of your plan.
+SmartAppoint Service
+â€¢ The SmartAppoint Service is an advanced policy 
+instruction, and not an enduring power of attorney 
+(â€œEPAâ€) or guardianship order. It does not appoint 
+the designated person as your attorney or guardian/
+committee. If you have an EPA or a guardian/committee 
+appointed, you must not apply for this service.
+â€¢ The policy holder and the insured person must be the 
+same person.
+â€¢ The designated person must be a member of your family 
+who is age 18 or over, and must be your spouse, parent, 
+child, sibling, grandparent, grandchild, or any other 
+relation we approve.
+â€¢ You must notify the designated person of the instruction/
+change of instruction under this service.
+â€¢ When submitting a claim, the designated person needs 
+to provide medical reports from 2 registered medical 
+practitioners (1 from your attending doctor) confirming 
+your mental incapacity to our satisfaction, and any other 
+documents or evidence we may require.</t>
+  </si>
+  <si>
+    <t>Is Treatment Sure part of the core insurance coverage or an additional service?</t>
+  </si>
+  <si>
+    <t>Treatment Sure is a value-added service, not part of the core medical coverage</t>
+  </si>
+  <si>
+    <t>Does the Medical Expenses Direct Billing Service mean I don’t have to pay anything upfront as a CoreChoice policyholder?</t>
+  </si>
+  <si>
+    <t>Yes, if you use Prudential’s medical network and get pre-authorisation, Prudential settles eligible medical expenses directly with the provider</t>
+  </si>
+  <si>
+    <t>Medical Network - Medical Expenses Direct Billing ServiceSkip links
+* Home
+* Claims
+* Medical Expenses Direct Billing Service
+Medical Network - Medical Expenses Direct Billing ServiceOur team is available to help you book an appointment at one of our network specialists, so you can access treatment with the convenience of direct billing.â€‹
+Cancer Treatment Service in Hong Kong and Mainland ChinaService Features
+* Medical network has been extended to include Oncology speciality. Eligible customers could choose to receive cancer treatment at designated medical centres in Hong Kong or mainland China to use the Medical Expenses Direct Billing Service.
+* Under the "Cancer Patients Shared Care" model^ which allows customers to receive support through face-to-face medical consultation or remote video consultation from designated medical centres (please check with our network medical specialist list) during their cancer treatment.
+^ Operated by attending doctors and healthcare professionals from both regions, the "Cancer Patients Shared Care" model aims to provide coordinated and patient-centred healthcare services throughout the entire cancer treatment process. Medical centres in Hong Kong and mainland China will collaborate in developing treatment plans for patients in need. Eligible Prudential customers can choose to receive cancer treatment services from designated centres in Hong Kong or mainland China, to gain support from both oncology centres during their cancer treatment journey through face-to-face medical consultation or remote video consultation.
+Benefit Highlights
+Diverse medical networkMedical network covers 21 private hospitals in Hong Kong, Mainland China and Macau, more than 500 network medical specialists and more than 30 diagnostic imaging centres. You can enjoy Medical Expenses Direct Billing Service for admission, day surgeries and diagnostic imaging test
+One-stop network doctor booking ServiceYou simply need to call our medical network booking and pre-authorisation hotline, and our dedicated team will assist you in scheduling appointments with Prudential network medical specialist
+Instant pre-authorisation in our medical network and waiver of credit card authorisation 
+If you receive medical treatment at medical network, our network medical specialist will help you submit the application for instant pre-authorisation for Medical Expenses Direct Billing Service and you will receive pre-authorisation result immediately, providing you even more convenience, and credit card authorisation for Medical Expenses Direct Billing Service is waived for all covered medical plans
+Hassle-free on medical expense and claim procedurePrudential will settle the pre-approved medical expenses to the medical network provider, so you donâ€™t need to pay for the pre-approved medical expenses by yourself and worry about claim procedure
+Diverse medical networkMedical network covers 21 private hospitals in Hong Kong, Mainland China and Macau, more than 500 network medical specialists and more than 30 diagnostic imaging centres. You can enjoy Medical Expenses Direct Billing Service for admission, day surgeries and diagnostic imaging test
+One-stop network doctor booking ServiceYou simply need to call our medical network booking and pre-authorisation hotline, and our dedicated team will assist you in scheduling appointments with Prudential network medical specialist
+Instant pre-authorisation in our medical network and waiver of credit card authorisation 
+If you receive medical treatment at medical network, our network medical specialist will help you submit the application for instant pre-authorisation for Medical Expenses Direct Billing Service and you will receive pre-authorisation result immediately, providing you even more convenience, and credit card authorisation for Medical Expenses Direct Billing Service is waived for all covered medical plans
+Hassle-free on medical expense and claim procedurePrudential will settle the pre-approved medical expenses to the medical network provider, so you donâ€™t need to pay for the pre-approved medical expenses by yourself and worry about claim procedure
+Diverse medical networkMedical network covers 21 private hospitals in Hong Kong, Mainland China and Macau, more than 500 network medical specialists and more than 30 diagnostic imaging centres. You can enjoy Medical Expenses Direct Billing Service for admission, day surgeries and diagnostic imaging test
+One-stop network doctor booking ServiceYou simply need to call our medical network booking and pre-authorisation hotline, and our dedicated team will assist you in scheduling appointments with Prudential network medical specialist
+Instant pre-authorisation in our medical network and waiver of credit card authorisation 
+If you receive medical treatment at medical network, our network medical specialist will help you submit the application for instant pre-authorisation for Medical Expenses Direct Billing Service and you will receive pre-authorisation result immediately, providing you even more convenience, and credit card authorisation for Medical Expenses Direct Billing Service is waived for all covered medical plans
+Hassle-free on medical expense and claim procedurePrudential will settle the pre-approved medical expenses to the medical network provider, so you donâ€™t need to pay for the pre-approved medical expenses by yourself and worry about claim procedure
+PreviousNext
+Remark: Medical Expenses Direct Billing Service is only applicable to Covered Plans. Medical Expenses Direct Billing Service is an administrative arrangement in respect of covered medical expenses incurred and is provided by third-party service providers.</t>
+  </si>
+  <si>
+    <t>gs://guide-care-poc/vas/Medical Network - Medical Expenses Direct Billing Service.docx</t>
+  </si>
+  <si>
+    <t>If I use Treatment Sure as CoreChoice policy holder, will Prudential pay for my overseas treatment costs?</t>
+  </si>
+  <si>
+    <t>If you are a CoreChoice policyholder and use the Treatment Sure service, Prudential does not directly pay for your overseas treatment costs. Here’s how it works specifically in the context of CoreChoice and Treatment Sure:
+Treatment Sure Services:
+Treatment Sure provides access to:
+Global Expert Medical Opinion.
+Overseas Medical Concierge services.
+These services assist in arranging your overseas treatment, but Prudential does not cover the travel, accommodation, or related costs involved.
+Claiming Treatment Costs:
+Only the actual treatment expenses are claimable under the benefit limits specified by your CoreChoice plan. Any such claims must adhere to the plan's terms and pre-authorization requirements.
+Source Quote:
+“The amount you can claim for treatment expenses is subject to the benefit limit of your plan… You will need to get our pre-authorisation before your treatment.”
+(Source: PRUHealth CoreChoice Product Documentation)</t>
+  </si>
+  <si>
+    <t>If I become mentally incapacitated, does SmartAppoint Service guarantee my family can access my claims under CoreChoice?</t>
+  </si>
+  <si>
+    <t>The SmartAppoint Service facilitates your family’s access to claims under specific conditions if you become mentally incapacitated. Here are the key details, along with the sources:
+Purpose of SmartAppoint Service:
+This service allows you to designate a family member in advance as a "Designated Person," who can file claims and receive claim payments on your behalf if you become mentally incapacitated due to sickness or unforeseen circumstances.
+Source: [SmartAppoint Service Documentation](gs://prudential-poc/vas/SmartAppoint Service.docx)
+Conditions for Access:
+To activate this service, the designated person must:
+Provide medical reports from two registered medical practitioners (one from your attending doctor) confirming your mental incapacity.
+Submit any other required documents or evidence that Prudential may need.
+Source: SmartAppoint Service Documentation</t>
+  </si>
+  <si>
+    <t>Skip links
+* Home
+* Health services
+* Value-added service &amp; support
+* SmartAppoint service
+SmartAppoint ServiceWhat happens if youâ€™re mentally incapacitated and unable to file a claim, due to unforeseen circumstances?
+Get in touch
+What is SmartAppoint Service?SmartAppoint Service is the first-of-its-kind policy service in the market.
+Itâ€™s a free service which allows you to set up ahead of time, your family member as a Designated Person. Your Designated Person can file a claim and access the claim payment on your behalf with valid medical certificates, should you face the unfortunate situation of mental incapacitation due to sicknesses or unforeseen circumstances.
+This service is applicable to selected medical and critical illness products only.
+Service at a glance
+Service highlights
+Simple application &amp; claims proceduresYou can free yourself from cumbersome legal processes when you plan ahead with us
+In control &amp; peace-of-mindYouâ€™re in control when you set up a family member of your choice as the Designated Person ahead
+Immediate financial reliefYour family will be able to access the claims payment immediately, when it matters the most
+Simple application &amp; claims proceduresYou can free yourself from cumbersome legal processes when you plan ahead with us
+In control &amp; peace-of-mindYouâ€™re in control when you set up a family member of your choice as the Designated Person ahead
+Immediate financial reliefYour family will be able to access the claims payment immediately, when it matters the most
+Simple application &amp; claims proceduresYou can free yourself from cumbersome legal processes when you plan ahead with us
+In control &amp; peace-of-mindYouâ€™re in control when you set up a family member of your choice as the Designated Person ahead
+Immediate financial reliefYour family will be able to access the claims payment immediately, when it matters the most
+PreviousNext
+Hereâ€™s an example of how SmartAppoint works* With SmartAppoint
+* Without SmartAppoint
+Eric is the policyowner and insured, he is 60 years old. Alice is Ericâ€™s daughter, she is 30 years old.
+* Eric suffered a stroke while working in the office and had to be immediately hospitalised
+* Fortunately, Eric was covered by a critical illness plan and set up an instruction in advance for Alice to be his Designated Person using SmartAppoint
+* Eric remained unconscious since the stroke and required ongoing hospitalisation. Therefore, Alice filed an application for claims to Prudential as Ericâ€™s Designated Person
+* The claims were processed and paid out promptly, and Alice was able to concentrate on caregiving while being covered financially.
+Looking for more informationService LeafletApplication Form (Hong Kong Edition)Application Form (Macau Edition)Learn moreExpand All
+Is SmartAppoint available to me?Important noteNotesBack to top
+Visit your local Prudential site
+Select an option
+Follow usProductsTools &amp; SupportLegal &amp; Regulatory RelatedAbout Us &amp; CareersContact UsNote: Other links from this site may contain information regarding products which are not authorized by the Securities and Futures Commission in Hong Kong and cannot be purchased in Hong Kong.
+Â© Copyright 2025 Prudential Hong Kong Limited (Part of The Prudential Group). All rights reserved.</t>
+  </si>
+  <si>
+    <t>gs://guide-care-poc/vas/SmartAppoint Service.docx</t>
+  </si>
+  <si>
+    <t>Can I use PRUHealth Team to get medical advice under CoreChoice?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the PRUHealth Team does not provide medical advice under the PRUHealth CoreChoice plan or any other service. Instead, it offers general support for health inquiries and helps facilitate specific services. Here are the relevant details:
+Service Provided by PRUHealth Team:
+The PRUHealth Team is staffed by professional nurses who can provide support for health inquiries via instant messaging. This includes offering general health information, helping arrange appointments with network specialists, and facilitating Medical Expense Direct Billing Service.
+Limitation – No Medical Advice:
+While the PRUHealth Team is very resourceful for non-emergency matters, they explicitly do not offer medical advice. Customers are encouraged to consult professional doctors for any health conditions or concerns.
+</t>
+  </si>
+  <si>
+    <t>Skip links
+* Home
+* Health services
+* Chat with the PRUHealthTeam
+PRUHealth TeamOur professional nurse team can support you with health enquiries or appointments via instant messaging.
+What is PRUHealth Team?Our professional nurse team will try their best to understand your health needs, and offers support\* for customersâ€™ health enquires via Instant Messaging. Customers with eligible medical insurance plans can arrange priority appointments at selected specialist network clinics and pre-authorisation for Medical Expense Direct Billing Service#, without having cashflow worries. Additionally, customer can receive health tips.
+\* PRUHealth Team only provides general information to health enquires, Medical Expenses Direct Billing Service appointment booking at Prudential network doctors for specialist consultation and Medical Expenses Direct Billing Service arrangement. PRUHealth Team is only applicable to the Life Assured policies. PRUHealth Team provides general information to health enquires and is not medical advice. If you are feeling unwell or have any health conditions, please seek professional doctorsâ€™ advice as soon as possible. Please refer to the Terms and Conditions for details.
+Medical Expenses Direct Billing Service is an administrative arrangement offered by Prudential in its absolute discretion in respect of covered medical expenses incurred. Medical services under this Medical Expenses Direct Billing Service are provided by third-party service providers. Prudential is not the service provider or the agent of the service providers. â€¯ Prudential makes no representation, warranty or undertaking as to the quality and availability of the services and shall not accept any responsibility or liability for the services provided by the service providers. Medical Expenses Direct Billing Service is only applicable to Covered Plans which are in force at the time of Application and receiving the recommended medical services. Please refer to Terms and Conditions in Medical Network - Medical Expenses Direct Billing Service for details.
+Benefit Highlights
+Health enquiry supportOur professional nurse team will answer your health enquiries and provide support^
+Arrange appointments at selected specialist network clinicsSimply text the PRUHealth Team, and our professional nurse team will respond you within one working day and make an appointment with selected Prudential network specialist as soon as possible
+Seamless connection to Medical Network - Medical Expenses Direct Billing Service 
+Prudential will settle the pre-approved medical expenses to the medical network provider, so you donâ€™t need to pay for the pre-approved medical expenses by yourself and worry about claim procedure
+Value-added Service NavigationWe are dedicated to understanding your health needs and delivering value-added service navigation
+Health enquiry supportOur professional nurse team will answer your health enquiries and provide support^
+Arrange appointments at selected specialist network clinicsSimply text the PRUHealth Team, and our professional nurse team will respond you within one working day and make an appointment with selected Prudential network specialist as soon as possible
+Seamless connection to Medical Network - Medical Expenses Direct Billing Service 
+Prudential will settle the pre-approved medical expenses to the medical network provider, so you donâ€™t need to pay for the pre-approved medical expenses by yourself and worry about claim procedure
+Value-added Service NavigationWe are dedicated to understanding your health needs and delivering value-added service navigation
+Health enquiry supportOur professional nurse team will answer your health enquiries and provide support^
+Arrange appointments at selected specialist network clinicsSimply text the PRUHealth Team, and our professional nurse team will respond you within one working day and make an appointment with selected Prudential network specialist as soon as possible
+Seamless connection to Medical Network - Medical Expenses Direct Billing Service 
+Prudential will settle the pre-approved medical expenses to the medical network provider, so you donâ€™t need to pay for the pre-approved medical expenses by yourself and worry about claim procedure
+Value-added Service NavigationWe are dedicated to understanding your health needs and delivering value-added service navigation
+PreviousNext
+Health tips
+Personalized health tips will be sent to keep you informed with the latest health information and help you maintain a healthy lifestyle
+^ PRUHealth Team only provides general information to health enquires, Medical Expenses Direct Billing Service appointment booking at Prudential network doctors for specialist consultation and Medical Expenses Direct Billing Service arrangement. PRUHealth Team is only applicable to the Life Assured of policies. PRUHealth Team provides general information to health enquires and is not medical advice. If you are feeling unwell or have any health conditions, please seek professional doctorsâ€™ advice as soon as possible. Please refer to the Terms and Conditions for details.
+How to contact PRUHealth Team?Text via WhatsApp Messager and select desired service:
+PRUHealth Team has expended its service on WeChat!</t>
+  </si>
+  <si>
+    <t>gs://guide-care-poc/vas/PRUHealth Team.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about medical green channel
+</t>
   </si>
   <si>
     <t>Medical Green Channel is a value-added service provided primarily for policyholders in Mainland China to simplify the process of accessing medical care. Here are the key details:
@@ -3365,40 +3911,55 @@
 (Source: Documents from "Medical Green Channel" and associated value-added service references)</t>
   </si>
   <si>
-    <t>If I use Treatment Sure as CoreChoice policy holder, will Prudential pay for my overseas treatment costs?</t>
-  </si>
-  <si>
-    <t>Medical Green Channel is a one-stop booking service for medical appointment provided by Teladoc Health, our partner provider, which allows you to receive treatment more quickly by saving you from long waiting times and clumsy booking procedures.
-Get priority booking for outpatient and/or hospitalisation appointment at Medical Green Channel's selected hospitals in Mainland China. It covers around 1,200 hospitals in Mainland China, located in major cities such as Beijing, Shanghai, Shenzhen and Guangzhou.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about medical green channel
-</t>
-  </si>
-  <si>
-    <t>Medical Green Channel</t>
-  </si>
-  <si>
-    <t>encash-product-brochure_hk</t>
-  </si>
-  <si>
-    <t>I am a holder of Prudential Encash Hospital Cash Savings Insurance. Am I eligible for medical green channel?</t>
-  </si>
-  <si>
-    <t>The retrieved documents do not explicitly mention the eligibility of holders of the Prudential Encash Hospital Cash Savings Insurance for the Medical Green Channel service. The Medical Green Channel is generally provided for certain insurance plans, such as PRUHealth CoreChoice Medical Plan, offering priority booking for outpatient and/or hospitalisation appointments at selected hospitals in Mainland China.
-To confirm your eligibility for this service under your specific policy, I recommend contacting Prudential's Customer Service Hotline at 2281 1333 (Hong Kong). They will be able to provide detailed and accurate information regarding your plan's features and benefits.</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>dbso-flyer</t>
+    <t>Skip links
+* Home
+* Health services
+* Value-added service &amp; support
+* Medical Green Channel
+Medical Green ChannelGet priority booking for outpatient and / or hospitalisation appointment at Medical Green Channelâ€™s selected hospitals in Mainland China.
+What is Medical Green Channel?If you were to fall sick and need medical services in Mainland China (including outpatient and / or hospitalisation), the following questions may run through your mind:
+* How do I make an appointment for medical services quickly?
+* Is there a suitable hospital for me?
+Medical Green Channel is a one-stop booking service for medical appointment provided by Teladoc Health, our partner provider, which allows you to receive treatment more quickly by saving you from long waiting times and clumsy booking procedures.
+Benefit HighlightsPriority booking at selected hospitals in Mainland ChinaGet priority booking for outpatient and/or hospitalisation appointment at Medical Green Channel's selected hospitals in Mainland China. It covers around 1,200 hospitals in Mainland China, located in major cities such as Beijing, Shanghai, Shenzhen and Guangzhou.
+Multiple channels of enrollmentYou can enrol to make medical appointment through our online platform or 24-hour service hotline anytime to receive treatment quickly.
+Dedicated case managerYour dedicated case manager will follow up on your entire service journey with you\*.
+Escort serviceAn escort staff will go to the appointed hospital to assist you on the registration process for outpatient and / or hospitalisation service.
+\* The case manager will not provide any medical advice
+How does Medical Green Channel work?
+Step 1 Service EnrolmentVisit the online portal or call the 24-hour Medical Green Channel service hotline (supports Cantonese, English and Mandarin) for enrolment.
+Step 2 Communication with a dedicated case manager.A case manager will contact you within 24 hours, in your chosen language, by phone to understand your needs.
+Step 3 Escort serviceAn escort staff will be assigned to go to the appointed hospital, assisting you on the registration process for outpatient and / or hospitalisation services.
+Step 1 Service EnrolmentVisit the online portal or call the 24-hour Medical Green Channel service hotline (supports Cantonese, English and Mandarin) for enrolment.
+Step 2 Communication with a dedicated case manager.A case manager will contact you within 24 hours, in your chosen language, by phone to understand your needs.
+Step 3 Escort serviceAn escort staff will be assigned to go to the appointed hospital, assisting you on the registration process for outpatient and / or hospitalisation services.
+Step 1 Service EnrolmentVisit the online portal or call the 24-hour Medical Green Channel service hotline (supports Cantonese, English and Mandarin) for enrolment.
+Step 2 Communication with a dedicated case manager.A case manager will contact you within 24 hours, in your chosen language, by phone to understand your needs.
+Step 3 Escort serviceAn escort staff will be assigned to go to the appointed hospital, assisting you on the registration process for outpatient and / or hospitalisation services.
+PreviousNext
+How to Use the Medical Green Channel Service VideoLearn MoreExpand All
+Is Medical Green Channel available to me?What medical conditions are excluded?Looking for more information or would like to activate the service?Online enrolment portal
+* Please click here
+Medical Green Channel service hotline\* (24-hour, 365-day service)
+* Hong Kong SAR: (852) 8229 2880
+* Mainland China: (86) 400 920 6012
+\* You may be required to pay the IDD/international roaming service fee to the telecommunications service provider if you call from outside the locations above (including Macau)
+Useful InformationList of Medical Green Channel hospitalsService LeafletExpand All
+Terms and ConditionsDisclaimerPRUHealth Team is dedicated to understanding your health needs and delivering value-added service navigation.
+Text via WhatsApp Messager or WeChat to speak with our professional nurse team.
+\*WeChat only available in Traditional Chinese and Simplified Chinese
+Get in touch
+Back to top
+Visit your local Prudential site
+Select an option
+Follow usProductsTools &amp; SupportLegal &amp; Regulatory RelatedAbout Us &amp; CareersContact UsNote: Other links from this site may contain information regarding products which are not authorized by the Securities and Futures Commission in Hong Kong and cannot be purchased in Hong Kong.
+Â© Copyright 2025 Prudential Hong Kong Limited (Part of The Prudential Group). All rights reserved.</t>
+  </si>
+  <si>
+    <t>gs://guide-care-poc/vas/Medical Green Channel.docx</t>
   </si>
   <si>
     <t>Is medical green channel available in Death Benefit Settlement Option?</t>
-  </si>
-  <si>
-    <t>Can I use PRUHealth Team to get medical advice under CoreChoice?</t>
   </si>
   <si>
     <t>The Medical Green Channel service, offering priority booking for outpatient and/or hospitalisation at selected hospitals, is specifically linked to certain medical insurance plans. It is not inherently tied to the "Death Benefit Settlement Option."
@@ -3406,50 +3967,11 @@
 For an accurate confirmation about your particular policy, I recommend contacting Prudential's customer service directly.</t>
   </si>
   <si>
-    <t>If I become mentally incapacitated, does SmartAppoint Service guarantee my family can access my claims under CoreChoice?</t>
-  </si>
-  <si>
-    <t>The SmartAppoint Service facilitates your family’s access to claims under specific conditions if you become mentally incapacitated. Here are the key details, along with the sources:
-Purpose of SmartAppoint Service:
-This service allows you to designate a family member in advance as a "Designated Person," who can file claims and receive claim payments on your behalf if you become mentally incapacitated due to sickness or unforeseen circumstances.
-Source: [SmartAppoint Service Documentation](gs://prudential-poc/vas/SmartAppoint Service.docx)
-Conditions for Access:
-To activate this service, the designated person must:
-Provide medical reports from two registered medical practitioners (one from your attending doctor) confirming your mental incapacity.
-Submit any other required documents or evidence that Prudential may need.
-Source: SmartAppoint Service Documentation</t>
-  </si>
-  <si>
-    <t>SmartAppoint Service is the first-of-its-kind policy service in the market.
-It’s a free service which allows you to set up ahead of time, your family member as a Designated Person. Your Designated Person can file a claim and access the claim payment on your behalf with valid medical certificates, should you face the unfortunate situation of mental incapacitation due to sicknesses or unforeseen circumstances.</t>
-  </si>
-  <si>
-    <t>PRUHealth Team only provides general information to health enquires, Medical Expenses Direct Billing Service appointment booking at Prudential network doctors for specialist consultation, and Medical Expenses Direct Billing Service arrangement. Customers with eligible medical insurance plans can arrange priority appointments at selected specialist network clinics and pre-authorisation for Medical Expense Direct Billing Service.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No, the PRUHealth Team does not provide medical advice under the PRUHealth CoreChoice plan or any other service. Instead, it offers general support for health inquiries and helps facilitate specific services. Here are the relevant details:
-Service Provided by PRUHealth Team:
-The PRUHealth Team is staffed by professional nurses who can provide support for health inquiries via instant messaging. This includes offering general health information, helping arrange appointments with network specialists, and facilitating Medical Expense Direct Billing Service.
-Limitation – No Medical Advice:
-While the PRUHealth Team is very resourceful for non-emergency matters, they explicitly do not offer medical advice. Customers are encouraged to consult professional doctors for any health conditions or concerns.
-</t>
-  </si>
-  <si>
-    <t>If you are a CoreChoice policyholder and use the Treatment Sure service, Prudential does not directly pay for your overseas treatment costs. Here’s how it works specifically in the context of CoreChoice and Treatment Sure:
-Treatment Sure Services:
-Treatment Sure provides access to:
-Global Expert Medical Opinion.
-Overseas Medical Concierge services.
-These services assist in arranging your overseas treatment, but Prudential does not cover the travel, accommodation, or related costs involved.
-Claiming Treatment Costs:
-Only the actual treatment expenses are claimable under the benefit limits specified by your CoreChoice plan. Any such claims must adhere to the plan's terms and pre-authorization requirements.
-Source Quote:
-“The amount you can claim for treatment expenses is subject to the benefit limit of your plan… You will need to get our pre-authorisation before your treatment.”
-(Source: PRUHealth CoreChoice Product Documentation)</t>
-  </si>
-  <si>
-    <t>The Treatment Sure offers Global Expert Medical Opinion and Medical Concierge services… If the insured person chooses to receive treatment abroad, they will be responsible for all fees and charges required for travel and accommodation and related items
-The amount you can claim for treatment expenses is subject to the benefit limit of your plan… You will need to get our pre-authorisation before your treatment.</t>
+    <t>I am a holder of Prudential Encash Hospital Cash Savings Insurance. Am I eligible for medical green channel?</t>
+  </si>
+  <si>
+    <t>The retrieved documents do not explicitly mention the eligibility of holders of the Prudential Encash Hospital Cash Savings Insurance for the Medical Green Channel service. The Medical Green Channel is generally provided for certain insurance plans, such as PRUHealth CoreChoice Medical Plan, offering priority booking for outpatient and/or hospitalisation appointments at selected hospitals in Mainland China.
+To confirm your eligibility for this service under your specific policy, I recommend contacting Prudential's Customer Service Hotline at 2281 1333 (Hong Kong). They will be able to provide detailed and accurate information regarding your plan's features and benefits.</t>
   </si>
   <si>
     <t>Does Encash Hospital Cash Savings Insurance provide death benefit?</t>
@@ -3458,15 +3980,54 @@
     <t>Yes, it pays a death benefit equal to current sum assured and terminal bonus</t>
   </si>
   <si>
-    <t>We will pay 100% of the current sum assured and terminal bonus as the Death Benefit</t>
+    <t>Our statements about the planâ€™s Severe Diabetes lump sum benefit being â€œfirst-in-marketâ€ refer to the lump sum benefit it 
+provides if the life assured is diagnosed with severe type 2 diabetes without diabetic complications. We base the statements 
+on our understanding and interpretation of current market information on basic plans which provide a lump sum benefit, if the 
+life assured is diagnosed with certain disease conditions, issued by major Hong Kong life insurance companies for individual 
+customers, as at 28 May 2025.
+Our statement about the planâ€™s FlexLegacy being â€˜new-to-marketâ€™ refers specifically to its feature allowing the commencement 
+of death benefit payments upon designated life events rather than solely upon a designated age. We base the statement on 
+our understanding and interpretation of current market information regarding other publicly available savings and life insurance 
+plans issued by major Hong Kong life insurance companies for individual customers, as at 30 November 2025.
+Choose a backup policyholder to keep the protection and savings going
+Starting from the 1st policy anniversary, you, as the policyholder can choose a family member to be your policyâ€™s 
+succeeding owner, if you are not the life assured. This allows them to take over the policy and become the new 
+policyholder if the worst happens. 
+You can appoint, change or remove the succeeding owner as many times as you wish during the lifetime of the 
+current policyholder and the life assured. However, there can only be 1 succeeding owner at a time.About Shareholder-backed Participating Plan Important notes
+Plan highlights Key benefits Benefit schedule Key exclusions
+More about the plan
+11 12
+Benefit schedule
+Remarks 
+(1) We will deduct any amount you owe us from the benefit we pay.
+(2) If the total claimed amount for the Daily Hospital Cash Benefit, ICU Hospital Cash Benefit and the Long-term Illness Benefit 
+reaches 100% of your current sum assured, we would terminate your plan and may also pay you the face value of any 
+Terminal Bonus. 
+(3) The individual benefit limit applies to all in force and terminated Prudential Encash Hospital Cash Savings Insurance
+covering the same life assured, regardless of where we issued the policy(ies).
+(4) Severe Diabetes, as defined under the policy provisions, means type 2 diabetes mellitus covering glycated haemoglobin 
+level (HbA1c) on or above 9.0%, or glycated albumin level on or above 28.0%, only when HbA1c cannot effectively reflect 
+glycaemic status due to medical conditions as certified by a registered doctor.
+(5) Severe Dementia, as defined under the policy provisions, means an Alzheimerâ€™s disease or irreversible organic degenerative 
+brain disorders (dementia) which the diagnosis must be characterised by a Mini Mental State Examination score of 10 or less 
+out of 30, or equivalent score on another medically validated and accepted test of cognitive function. Parkinsonâ€™s Disease, 
+as defined under the policy provisions, means slowly progressive degenerative disease of the central nervous system which 
+the condition of the life assured cannot be controlled with medication, shows signs of progressive impairment and inability 
+to perform 3 or more daily living activities, without assistance. You can make only one claim, either for Severe Dementia or 
+Parkinsonâ€™s Disease.
+(6) The designated area includes Hong Kong, Macau, mainland China, Singapore, Malaysia, Japan, Taiwan, the United Kingdom, 
+member countries of the European Union, Switzerland, the Channel Islands, the Isle of Man, the United States of America, 
+Canada, Australia, New Zealand and the Republic of South Africa. 
+(7) There are more details of the selected hospitals on our website.</t>
+  </si>
+  <si>
+    <t>gs://guide-care-poc/policy/encash-product-brochure_hk.pdf</t>
   </si>
   <si>
     <t>Can I reduce my deductible under PremierFlex Medical Plan?</t>
   </si>
   <si>
-    <t>You can gear up your protection by reducing your deductible once in your lifetime</t>
-  </si>
-  <si>
     <t>Yes, you can reduce it once in your lifetime at specified ages</t>
   </si>
   <si>
@@ -3476,9 +4037,6 @@
     <t>No, it applies only to selected hospitals in Mainland China</t>
   </si>
   <si>
-    <t>Selected hospitals in Mainland China</t>
-  </si>
-  <si>
     <t>For PruHealth VHIS VIP Plan, are value-added services guaranteed for life?</t>
   </si>
   <si>
@@ -3491,14 +4049,122 @@
     <t>Outpatient benefits are available through a designated supplementary benefit</t>
   </si>
   <si>
-    <t>You can top up your plan with our tailored outpatient benefit</t>
+    <t>Any accident giving rise to a potential claim must be reported to us within 
+30 days of the accident and supported by a negative HIV antibody test taken within 72 hours after the accident; or
+â€“ any kind of sleep disorder; or
+â€“ treatment of obesity (including morbid obesity), weight control programmes or bariatric surgery (except when 
+bariatric surgery is necessary as confirmed by a specialist after failure of conventional treatments and approved by us 
+in advance).
+For more details on exclusions, please refer to the relevant policy provision.
+22More about the plan
+Plan type
+PRUmyhealth prestige medical plan: Basic plan and / or 
+supplementary benefit (i.e. rider)
+(When this plan is a basic plan, it means you can choose to 
+take out this plan as a standalone plan without enrolling with 
+other type(s) of insurance product at the same time. When 
+this plan is a supplementary benefit, it means you must attach 
+it to a basic plan when you are enrolling in it.)
+The Outpatient Benefit is only available as an additional 
+Designated Supplementary Benefit when you take out the 
+PRUmyhealth prestige medical plan.
+Premium term / Benefit term / Issue age /
+Currency option
+Premium term / 
+Benefit term Issue age Currency 
+option^ 
+PRUmyhealth 
+prestige 
+medical 
+plan
+â€¢ Whole life (applies 
+if this plan is a 
+basic plan)
+â€¢ Benefit term of 
+basic plan (applies 
+if this plan is a 
+supplementary 
+benefit)
+(please refer to 
+â€œTermination of 
+this planâ€ below for 
+details)
+0 â€“ 69 
+HKD / USD
+Outpatient 
+Benefit
+Whole life or benefit 
+term of basic plan, 
+whichever is earlier
+0 â€“ 69 
+â€¢ The life assured must be at least 15 days old when the 
+proposal document is signed.
+^ The currency of the supplementary benefit and the basic 
+plan it attaches to should be the same.
+Plan renewal / Premium structure
+We guarantee that you will be able to renew your plan at each 
+policy anniversary subject to the premium rate, terms and 
+conditions and Benefit Schedule that applies at that time. We 
+guarantee this provided that PRUmyhealth prestige medical 
+plan is still made available to all policyholders already enrolled.
+If we no longer offer PRUmyhealth prestige medical plan to 
+all policyholders already enrolled, we will endeavour to enrol 
+the life assured in another available medical plan at that time 
+without any new individual terms or personal exclusions.
+Premium rates of PRUmyhealth prestige medical plan 
+and Outpatient Benefit are not guaranteed and are yearly 
+adjustable based on the risk class (including but not limited 
+to age, annual deductible, nationality and country of 
+residence) and attained age of the life assured at the time of 
+plan renewal. We will determine the relevant premium rates 
+based on several factors, such as our claims and persistency 
+experience, medical price inflation, projected future medical 
+costs and any applicable changes in benefit. 
+Changes to benefits
+We have the absolute right to revise all terms and conditions 
+(including the Benefit Schedule and all other provisions) 
+under this plan and the Designated Supplementary Benefit 
+(if applicable) on each renewal by giving you 30 daysâ€™ notice 
+in writing. 
+The changes will apply automatically unless you tell us in 
+writing that you want to cancel your plan within 30 days of 
+the renewal date. If you do this, we will refund the premium 
+you have paid since the renewal if you have not made (and do 
+not make) any claims.
+The changes will include but are not limited to alterations to 
+all items shown in this planâ€™s Benefit Schedule. The changes 
+will reflect any past or foreseeable changes in medical 
+practice and claims experience. 
+We will adjust the premium based on the rate we determine.
+Limitations on room level choice 
+If the life assured stays in a higher category of room level 
+than their entitled room level (i.e. a private room), we will pay 
+only 25% of the relevant benefit. For example, if they stay in a 
+room such as a suite, a deluxe room or a VIP room. 
+23Limitations on treatments outside the coverage 
+area
+â€¢ For hospital stays, we will cover the eligible medical costs 
+of staying in a private room in the planâ€™s coverage area. 
+â€¢ If the life assured has an accident in the USA and needs 
+medical services there, we will pay their eligible claim in 
+line with the planâ€™s Benefit Schedule, subject to its annual 
+deductible.</t>
+  </si>
+  <si>
+    <t>gc-phkl-vas</t>
+  </si>
+  <si>
+    <t>gc-phkl-policy</t>
+  </si>
+  <si>
+    <t>corpus match</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3523,13 +4189,6 @@
       <color rgb="FF242424"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3576,7 +4235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3599,11 +4258,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3638,13 +4308,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3662,10 +4333,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3959,16 +4626,16 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" customWidth="1"/>
-    <col min="2" max="2" width="53.54296875" customWidth="1"/>
-    <col min="3" max="3" width="34.54296875" customWidth="1"/>
-    <col min="4" max="4" width="54.453125" customWidth="1"/>
-    <col min="5" max="5" width="201.81640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="54.42578125" customWidth="1"/>
+    <col min="5" max="5" width="201.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3985,7 +4652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -4002,7 +4669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -4019,7 +4686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -4036,7 +4703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -4053,7 +4720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -4070,7 +4737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -4087,7 +4754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -4104,7 +4771,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -4121,7 +4788,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -4138,7 +4805,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -4155,7 +4822,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -4172,7 +4839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -4189,7 +4856,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -4206,7 +4873,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
@@ -4223,7 +4890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -4240,7 +4907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -4257,7 +4924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
@@ -4274,7 +4941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>48</v>
       </c>
@@ -4291,7 +4958,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>48</v>
       </c>
@@ -4308,7 +4975,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>48</v>
       </c>
@@ -4325,7 +4992,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>48</v>
       </c>
@@ -4342,7 +5009,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>48</v>
       </c>
@@ -4359,7 +5026,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
@@ -4376,7 +5043,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>48</v>
       </c>
@@ -4393,7 +5060,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="174" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>48</v>
       </c>
@@ -4410,7 +5077,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>48</v>
       </c>
@@ -4427,7 +5094,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>48</v>
       </c>
@@ -4444,7 +5111,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>48</v>
       </c>
@@ -4461,7 +5128,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>48</v>
       </c>
@@ -4478,7 +5145,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>48</v>
       </c>
@@ -4495,7 +5162,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>48</v>
       </c>
@@ -4512,7 +5179,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>48</v>
       </c>
@@ -4529,7 +5196,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>48</v>
       </c>
@@ -4546,7 +5213,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>48</v>
       </c>
@@ -4563,7 +5230,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>48</v>
       </c>
@@ -4580,7 +5247,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>48</v>
       </c>
@@ -4597,7 +5264,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>48</v>
       </c>
@@ -4614,7 +5281,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>48</v>
       </c>
@@ -4631,7 +5298,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>48</v>
       </c>
@@ -4648,7 +5315,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>48</v>
       </c>
@@ -4665,7 +5332,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>48</v>
       </c>
@@ -4682,7 +5349,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>48</v>
       </c>
@@ -4699,7 +5366,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>48</v>
       </c>
@@ -4716,7 +5383,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>48</v>
       </c>
@@ -4733,7 +5400,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>48</v>
       </c>
@@ -4750,7 +5417,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>48</v>
       </c>
@@ -4767,7 +5434,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>48</v>
       </c>
@@ -4784,7 +5451,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>48</v>
       </c>
@@ -4801,7 +5468,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>48</v>
       </c>
@@ -4818,7 +5485,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>48</v>
       </c>
@@ -4835,7 +5502,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>48</v>
       </c>
@@ -4852,7 +5519,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>48</v>
       </c>
@@ -4869,7 +5536,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>48</v>
       </c>
@@ -4886,7 +5553,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>48</v>
       </c>
@@ -4903,7 +5570,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>48</v>
       </c>
@@ -4920,7 +5587,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>48</v>
       </c>
@@ -4937,7 +5604,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>48</v>
       </c>
@@ -4954,7 +5621,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>48</v>
       </c>
@@ -4971,7 +5638,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>48</v>
       </c>
@@ -4988,7 +5655,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>48</v>
       </c>
@@ -5005,7 +5672,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>48</v>
       </c>
@@ -5022,7 +5689,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>48</v>
       </c>
@@ -5039,7 +5706,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>48</v>
       </c>
@@ -5056,7 +5723,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>48</v>
       </c>
@@ -5073,7 +5740,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>48</v>
       </c>
@@ -5090,7 +5757,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>48</v>
       </c>
@@ -5107,7 +5774,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>48</v>
       </c>
@@ -5124,7 +5791,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>48</v>
       </c>
@@ -5141,7 +5808,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>48</v>
       </c>
@@ -5158,7 +5825,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>180</v>
       </c>
@@ -5175,7 +5842,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>180</v>
       </c>
@@ -5192,7 +5859,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>180</v>
       </c>
@@ -5209,7 +5876,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>180</v>
       </c>
@@ -5226,7 +5893,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>180</v>
       </c>
@@ -5243,7 +5910,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>180</v>
       </c>
@@ -5260,7 +5927,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>180</v>
       </c>
@@ -5277,7 +5944,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>180</v>
       </c>
@@ -5294,7 +5961,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>180</v>
       </c>
@@ -5311,7 +5978,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>180</v>
       </c>
@@ -5328,7 +5995,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>180</v>
       </c>
@@ -5345,7 +6012,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>180</v>
       </c>
@@ -5362,7 +6029,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="203" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>180</v>
       </c>
@@ -5379,7 +6046,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="203" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>180</v>
       </c>
@@ -5396,7 +6063,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>180</v>
       </c>
@@ -5413,7 +6080,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>180</v>
       </c>
@@ -5430,7 +6097,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>180</v>
       </c>
@@ -5447,7 +6114,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="203" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>180</v>
       </c>
@@ -5464,7 +6131,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>180</v>
       </c>
@@ -5481,7 +6148,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>180</v>
       </c>
@@ -5498,7 +6165,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>180</v>
       </c>
@@ -5515,7 +6182,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>180</v>
       </c>
@@ -5532,7 +6199,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>180</v>
       </c>
@@ -5549,7 +6216,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>180</v>
       </c>
@@ -5566,7 +6233,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>180</v>
       </c>
@@ -5583,7 +6250,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>180</v>
       </c>
@@ -5600,7 +6267,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>180</v>
       </c>
@@ -5617,7 +6284,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>180</v>
       </c>
@@ -5634,7 +6301,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>180</v>
       </c>
@@ -5651,7 +6318,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>180</v>
       </c>
@@ -5668,7 +6335,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>180</v>
       </c>
@@ -5685,7 +6352,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>180</v>
       </c>
@@ -5702,7 +6369,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>180</v>
       </c>
@@ -5719,7 +6386,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>180</v>
       </c>
@@ -5736,7 +6403,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>180</v>
       </c>
@@ -5753,7 +6420,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>180</v>
       </c>
@@ -5770,7 +6437,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>180</v>
       </c>
@@ -5787,7 +6454,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>180</v>
       </c>
@@ -5804,7 +6471,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>180</v>
       </c>
@@ -5821,7 +6488,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>180</v>
       </c>
@@ -5838,7 +6505,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>180</v>
       </c>
@@ -5855,7 +6522,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>180</v>
       </c>
@@ -5872,7 +6539,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>180</v>
       </c>
@@ -5889,7 +6556,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>180</v>
       </c>
@@ -5906,7 +6573,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>180</v>
       </c>
@@ -5923,7 +6590,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>180</v>
       </c>
@@ -5940,7 +6607,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>180</v>
       </c>
@@ -5957,7 +6624,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>180</v>
       </c>
@@ -5974,7 +6641,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>180</v>
       </c>
@@ -5991,7 +6658,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>180</v>
       </c>
@@ -6008,7 +6675,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>180</v>
       </c>
@@ -6025,7 +6692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>180</v>
       </c>
@@ -6042,7 +6709,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>180</v>
       </c>
@@ -6059,7 +6726,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
         <v>180</v>
       </c>
@@ -6076,7 +6743,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
         <v>180</v>
       </c>
@@ -6093,7 +6760,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
         <v>180</v>
       </c>
@@ -6110,7 +6777,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
         <v>180</v>
       </c>
@@ -6127,7 +6794,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>180</v>
       </c>
@@ -6144,7 +6811,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
         <v>180</v>
       </c>
@@ -6161,7 +6828,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
         <v>180</v>
       </c>
@@ -6178,7 +6845,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>180</v>
       </c>
@@ -6195,7 +6862,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
         <v>180</v>
       </c>
@@ -6212,7 +6879,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>180</v>
       </c>
@@ -6229,7 +6896,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>180</v>
       </c>
@@ -6246,7 +6913,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>180</v>
       </c>
@@ -6263,7 +6930,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>180</v>
       </c>
@@ -6280,7 +6947,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>180</v>
       </c>
@@ -6297,7 +6964,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>180</v>
       </c>
@@ -6314,7 +6981,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>180</v>
       </c>
@@ -6331,7 +6998,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>180</v>
       </c>
@@ -6348,7 +7015,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>180</v>
       </c>
@@ -6365,7 +7032,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>180</v>
       </c>
@@ -6382,7 +7049,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>362</v>
       </c>
@@ -6399,7 +7066,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>362</v>
       </c>
@@ -6416,7 +7083,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="377" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>362</v>
       </c>
@@ -6433,7 +7100,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>362</v>
       </c>
@@ -6450,7 +7117,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
         <v>362</v>
       </c>
@@ -6467,7 +7134,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="377" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>362</v>
       </c>
@@ -6484,7 +7151,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>362</v>
       </c>
@@ -6501,7 +7168,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>362</v>
       </c>
@@ -6518,7 +7185,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="377" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>362</v>
       </c>
@@ -6535,7 +7202,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>362</v>
       </c>
@@ -6552,7 +7219,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="377" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
         <v>362</v>
       </c>
@@ -6569,7 +7236,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="377" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>362</v>
       </c>
@@ -6586,7 +7253,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="377" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
         <v>362</v>
       </c>
@@ -6603,7 +7270,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>362</v>
       </c>
@@ -6620,7 +7287,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>362</v>
       </c>
@@ -6637,7 +7304,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>362</v>
       </c>
@@ -6654,7 +7321,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
         <v>362</v>
       </c>
@@ -6671,7 +7338,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
         <v>362</v>
       </c>
@@ -6688,7 +7355,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
         <v>362</v>
       </c>
@@ -6705,7 +7372,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
         <v>362</v>
       </c>
@@ -6722,7 +7389,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
         <v>362</v>
       </c>
@@ -6739,7 +7406,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
         <v>362</v>
       </c>
@@ -6756,7 +7423,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A165" s="14" t="s">
         <v>362</v>
       </c>
@@ -6773,7 +7440,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
         <v>362</v>
       </c>
@@ -6790,7 +7457,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="s">
         <v>362</v>
       </c>
@@ -6807,7 +7474,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
         <v>362</v>
       </c>
@@ -6824,7 +7491,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
         <v>362</v>
       </c>
@@ -6841,7 +7508,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
         <v>362</v>
       </c>
@@ -6858,7 +7525,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
         <v>362</v>
       </c>
@@ -6875,7 +7542,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
         <v>362</v>
       </c>
@@ -6892,7 +7559,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
         <v>362</v>
       </c>
@@ -6909,7 +7576,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="261" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>362</v>
       </c>
@@ -6926,7 +7593,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
         <v>362</v>
       </c>
@@ -6943,7 +7610,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
         <v>362</v>
       </c>
@@ -6960,7 +7627,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>362</v>
       </c>
@@ -6977,7 +7644,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>362</v>
       </c>
@@ -6994,7 +7661,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>362</v>
       </c>
@@ -7011,7 +7678,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>362</v>
       </c>
@@ -7028,7 +7695,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>362</v>
       </c>
@@ -7045,7 +7712,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>362</v>
       </c>
@@ -7062,7 +7729,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>362</v>
       </c>
@@ -7079,7 +7746,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
         <v>362</v>
       </c>
@@ -7096,7 +7763,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
         <v>362</v>
       </c>
@@ -7113,7 +7780,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
         <v>362</v>
       </c>
@@ -7130,7 +7797,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
         <v>362</v>
       </c>
@@ -7147,7 +7814,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
         <v>362</v>
       </c>
@@ -7164,7 +7831,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
         <v>362</v>
       </c>
@@ -7181,7 +7848,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
         <v>362</v>
       </c>
@@ -7198,7 +7865,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>362</v>
       </c>
@@ -7215,7 +7882,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>362</v>
       </c>
@@ -7232,7 +7899,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>362</v>
       </c>
@@ -7249,7 +7916,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>362</v>
       </c>
@@ -7266,7 +7933,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>362</v>
       </c>
@@ -7283,7 +7950,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>362</v>
       </c>
@@ -7300,7 +7967,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>362</v>
       </c>
@@ -7317,7 +7984,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>362</v>
       </c>
@@ -7334,7 +8001,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>362</v>
       </c>
@@ -7351,7 +8018,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>362</v>
       </c>
@@ -7368,7 +8035,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>362</v>
       </c>
@@ -7385,7 +8052,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>362</v>
       </c>
@@ -7402,7 +8069,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>362</v>
       </c>
@@ -7419,7 +8086,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>362</v>
       </c>
@@ -7436,7 +8103,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>362</v>
       </c>
@@ -7453,7 +8120,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>362</v>
       </c>
@@ -7470,7 +8137,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
         <v>362</v>
       </c>
@@ -7487,7 +8154,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
         <v>362</v>
       </c>
@@ -7504,7 +8171,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
         <v>362</v>
       </c>
@@ -7521,7 +8188,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="s">
         <v>362</v>
       </c>
@@ -7538,7 +8205,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
         <v>362</v>
       </c>
@@ -7555,7 +8222,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
         <v>362</v>
       </c>
@@ -7572,7 +8239,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
         <v>362</v>
       </c>
@@ -7589,7 +8256,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
         <v>362</v>
       </c>
@@ -7606,7 +8273,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
         <v>362</v>
       </c>
@@ -7623,7 +8290,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
         <v>362</v>
       </c>
@@ -7640,7 +8307,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
         <v>362</v>
       </c>
@@ -7657,7 +8324,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>362</v>
       </c>
@@ -7674,7 +8341,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>362</v>
       </c>
@@ -7691,7 +8358,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>362</v>
       </c>
@@ -7708,7 +8375,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>362</v>
       </c>
@@ -7725,7 +8392,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>362</v>
       </c>
@@ -7742,7 +8409,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>362</v>
       </c>
@@ -7759,7 +8426,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>362</v>
       </c>
@@ -7776,7 +8443,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>362</v>
       </c>
@@ -7793,7 +8460,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="s">
         <v>362</v>
       </c>
@@ -7810,7 +8477,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
         <v>362</v>
       </c>
@@ -7827,7 +8494,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="s">
         <v>362</v>
       </c>
@@ -7844,7 +8511,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="261" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
         <v>362</v>
       </c>
@@ -7861,7 +8528,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
         <v>362</v>
       </c>
@@ -7878,7 +8545,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="261" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
         <v>362</v>
       </c>
@@ -7895,7 +8562,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
         <v>362</v>
       </c>
@@ -7912,7 +8579,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
         <v>362</v>
       </c>
@@ -7929,7 +8596,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
         <v>362</v>
       </c>
@@ -7946,7 +8613,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
         <v>362</v>
       </c>
@@ -7963,7 +8630,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="261" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
         <v>362</v>
       </c>
@@ -7980,7 +8647,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
         <v>362</v>
       </c>
@@ -7997,7 +8664,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="261" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
         <v>362</v>
       </c>
@@ -8014,7 +8681,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
         <v>362</v>
       </c>
@@ -8031,7 +8698,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>362</v>
       </c>
@@ -8048,7 +8715,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
         <v>362</v>
       </c>
@@ -8065,7 +8732,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
         <v>362</v>
       </c>
@@ -8082,7 +8749,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>362</v>
       </c>
@@ -8099,7 +8766,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
         <v>362</v>
       </c>
@@ -8123,382 +8790,421 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D313330E-9F3A-40CB-814C-B0D03F27DB97}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="66" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="58.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="79.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="51.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>582</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>583</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="F2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="F3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="F4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="F5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="262.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>602</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="F6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>603</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="C7" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>600</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="F2" s="17" t="s">
+      <c r="F7" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
-        <v>581</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="D8" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="F8" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="F9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>611</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>599</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>605</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>609</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>586</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="E10" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="F10" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>615</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="F11" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>616</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>619</v>
+      </c>
+      <c r="F12" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>622</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="F13" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>624</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>627</v>
+      </c>
+      <c r="F14" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>585</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="17" t="s">
-        <v>581</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="D8" s="17" t="s">
+      <c r="B15" s="16" t="s">
+        <v>628</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="F15" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>593</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>594</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="B9" s="17" t="s">
-        <v>581</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>596</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>597</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>607</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>615</v>
-      </c>
-      <c r="E11" s="17" t="s">
+      <c r="B16" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>631</v>
+      </c>
+      <c r="F16" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>588</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="C17" s="3" t="s">
         <v>633</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="348" x14ac:dyDescent="0.35">
-      <c r="B12" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>627</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>628</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>625</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>631</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>630</v>
-      </c>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>618</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>617</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>614</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="261" x14ac:dyDescent="0.35">
-      <c r="B15" s="17" t="s">
-        <v>581</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>624</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>626</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="232" x14ac:dyDescent="0.35">
-      <c r="B16" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>619</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>620</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>621</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B17" s="19" t="s">
-        <v>581</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>536</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="16" t="s">
         <v>635</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B18" s="17" t="s">
-        <v>582</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="D18" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B19" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="D19" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="F19" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F20" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>588</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B21" s="19" t="s">
-        <v>581</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>645</v>
-      </c>
       <c r="E21" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="F21" t="s">
         <v>646</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>647</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/evaluation_files/EMO, POLICY & VAS QA_updated.xlsx
+++ b/evaluation_files/EMO, POLICY & VAS QA_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\458840\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2388A05-791A-4F78-A108-3F5075F352E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCEBE56-AAC3-4F1E-A34C-574AB5D97310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="652">
   <si>
     <t>Folder</t>
   </si>
@@ -3149,25 +3149,6 @@
   </si>
   <si>
     <t>What's Treatment Sure?</t>
-  </si>
-  <si>
-    <t>Treatment Sure is a one-stop medical advisory service provided by Prudential in collaboration with its partner, Teladoc Health. This service includes:
-Global Second Medical Opinions: Offers independent medical opinions from an extensive network of over 50,000 global medical experts covering more than 450 specialties and sub-specialties. This helps you verify diagnoses and explore the most suitable treatments for your condition.
-Medical Concierge for Overseas Treatment: If you need treatment abroad, the service provides a dedicated physician case manager to guide you throughout your medical journey. This includes identifying suitable specialists around the world, arranging appointments, translation services, and even follow-ups post-treatment.
-Comprehensive Support: A dedicated physician case manager is assigned to support you at every step, answering your questions and ensuring personalized care.
-The service has benefited over 35 million customers across 130 countries, assuring peace of mind by helping in making informed health decisions.
-How Does It Work?
-Step 1: A physician case manager is assigned to you.
-Step 2: The manager gathers details about your medical condition.
-Step 3: Suitable global experts are identified and consulted.
-Step 4: You receive a personalized second medical opinion report in your language.
-Step 5: If you opt for overseas treatment, the manager organizes specialist options, appointments, and logistics.
-Step 6: Post-treatment, the manager follows up on your recovery.
-Contact Details
-For activation or queries:
-Hong Kong SAR: (852) 8229 2880
-Mainland China: (86) 400 920 6012
-Full details can be found in the [Treatment Sure document](gs://prudential-poc/vas/Treatment Sure.docx).</t>
   </si>
   <si>
     <t>Skip links
@@ -3360,9 +3341,6 @@
   </si>
   <si>
     <t>Policy specific QA</t>
-  </si>
-  <si>
-    <t>What's Treatment Sure? (Authenticated policy holder for PRUmyhealth prestige medical plan)</t>
   </si>
   <si>
     <t>The Treatment Sure service is a value-added feature associated with the PRUmyhealth Prestige Medical Plan designed to provide you with enhanced medical support services. Here's what it includes:
@@ -3608,13 +3586,7 @@
     <t>gs://guide-care-poc/policy/pruhealth-corechoice-medical-plan-product-brochure.pdf</t>
   </si>
   <si>
-    <t>What is the annual benefit limit under CoreChoice?</t>
-  </si>
-  <si>
     <t>The annual benefit limit is HKD 420,000</t>
-  </si>
-  <si>
-    <t>Who is eligible to apply for CoreChoice?</t>
   </si>
   <si>
     <t>Hong Kong residents aged from 15 days to 80 years old</t>
@@ -3772,19 +3744,6 @@
   </si>
   <si>
     <t>If I use Treatment Sure as CoreChoice policy holder, will Prudential pay for my overseas treatment costs?</t>
-  </si>
-  <si>
-    <t>If you are a CoreChoice policyholder and use the Treatment Sure service, Prudential does not directly pay for your overseas treatment costs. Here’s how it works specifically in the context of CoreChoice and Treatment Sure:
-Treatment Sure Services:
-Treatment Sure provides access to:
-Global Expert Medical Opinion.
-Overseas Medical Concierge services.
-These services assist in arranging your overseas treatment, but Prudential does not cover the travel, accommodation, or related costs involved.
-Claiming Treatment Costs:
-Only the actual treatment expenses are claimable under the benefit limits specified by your CoreChoice plan. Any such claims must adhere to the plan's terms and pre-authorization requirements.
-Source Quote:
-“The amount you can claim for treatment expenses is subject to the benefit limit of your plan… You will need to get our pre-authorisation before your treatment.”
-(Source: PRUHealth CoreChoice Product Documentation)</t>
   </si>
   <si>
     <t>If I become mentally incapacitated, does SmartAppoint Service guarantee my family can access my claims under CoreChoice?</t>
@@ -4159,12 +4118,151 @@
   <si>
     <t>corpus match</t>
   </si>
+  <si>
+    <t>Treatment Sure is a one-stop medical advisory service provided by Prudential in collaboration with its partner, Teladoc Health. This service includes:
+Global Second Medical Opinions: Offers independent medical opinions from an extensive network of over 50,000 global medical experts covering more than 450 specialties and sub-specialties. This helps you verify diagnoses and explore the most suitable treatments for your condition.
+Medical Concierge for Overseas Treatment: If you need treatment abroad, the service provides a dedicated physician case manager to guide you throughout your medical journey. This includes identifying suitable specialists around the world, arranging appointments, translation services, and even follow-ups post-treatment.
+Comprehensive Support: A dedicated physician case manager is assigned to support you at every step, answering your questions and ensuring personalized care.
+The service has benefited over 35 million customers across 130 countries, assuring peace of mind by helping in making informed health decisions.
+How Does It Work?
+Step 1: A physician case manager is assigned to you.
+Step 2: The manager gathers details about your medical condition.
+Step 3: Suitable global experts are identified and consulted.
+Step 4: You receive a personalized second medical opinion report in your language.
+Step 5: If you opt for overseas treatment, the manager organizes specialist options, appointments, and logistics.
+Step 6: Post-treatment, the manager follows up on your recovery.
+Contact Details
+For activation or queries:
+Hong Kong SAR: (852) 8229 2880
+Mainland China: (86) 400 920 6012</t>
+  </si>
+  <si>
+    <t>If you are a CoreChoice policyholder and use the Treatment Sure service, Prudential does not directly pay for your overseas treatment costs. Here’s how it works specifically in the context of CoreChoice and Treatment Sure:
+Treatment Sure Services:
+Treatment Sure provides access to:
+Global Expert Medical Opinion.
+Overseas Medical Concierge services.
+These services assist in arranging your overseas treatment, but Prudential does not cover the travel, accommodation, or related costs involved.
+Claiming Treatment Costs:
+Only the actual treatment expenses are claimable under the benefit limits specified by your CoreChoice plan. Any such claims must adhere to the plan's terms and pre-authorization requirements.</t>
+  </si>
+  <si>
+    <t>gs://guide-care-poc/policy/dbso-flyer.pdf</t>
+  </si>
+  <si>
+    <t>gs://guide-care-poc/policy/premierflex-medical-plan-product-brochure_hk.pdf</t>
+  </si>
+  <si>
+    <t>Medical Protection
+PremierFlex Medical Plan
+Lifetime freedom for medical treatment with coverage 
+in Macau, China and worldwide, all from one plan
+Macau Edition
+Health
+Care2
+The PremierFlex Medical Plan provides lifetime renewal, fully covering 
+your eligible medical costs for major benefit items and comprehensively 
+supporting you through prevention, diagnosis and treatment to recovery. 
+You can select your coverage area (Greater China, worldwide (except the USA) or 
+worldwide) as well as your deductible. Stay in a standard single room
+(including a qualified room in VIP units and international units) at hospitals in 
+mainland China, or a semi-private / private room in Hong Kong, Macau and 
+other regions, with premium quality medical service. Based on your needs, you can 
+also opt for a designated supplementary outpatient benefit â€“ â€œOutpatient Care 
+Benefitâ€ â€“ for outpatient treatment anytime in mainland China, Hong Kong and 
+Macau, giving you extra peace of mind.
+Through the HealthCare+ e-platform, we support you with a series of 
+thoughtful and dedicated value-added services â€“ including medical 
+green channels, direct billing for medical expenses, second medical 
+opinion and global drug search. This ensures you can obtain support for both 
+minor ailments and major illnesses.
+PremierFlex Medical Plan giving you access to top-notch medical service for 
+life, truly achieving healthcare freedom.
+PremierFlex Medical Plan3 4
+Plan highlights
+The PremierFlex Medical Plan offers 4 plans, with different coverage areas, giving you comprehensive protection â€“ from prevention, diagnosis, treatment to recovery wherever you are. Even if your medical history changes or there is a claim on the plan, 
+we will renew your plan every year throughout your lifetime, providing you with lifelong protection. The medical coverage includes:
+ You can also access Rare-in-Hong Kong market one-stop dedicated value-added services through the HealthCare+, 
+giving you help for both minor ailments and major illnesses. These include:
+â—†Full cover for eligible medical costs of prescribed diagnostic 
+imaging tests
+â—†Full cover for eligible medical costs of outpatient consultation 
+before hospitalisation or day case procedure
+â—†ã€Optional supplementary benefitã€‘Outpatient benefit â€“ 
+Outpatient Care Benefit applies to any hospital or clinic
+in mainland China, Hong Kong and Macau, covers outpatient 
+consultations, laboratory tests and diagnostic imaging as well 
+as Rare-in-Hong Kong market telemedicine service and 
+medication delivery (in mainland China)
+â—†Full cover for eligible medical costs for follow-up outpatient 
+consultations after a hospital stay or day case procedure. 
+We will extend the coverage period by 4 times to 365 days
+for complex or major surgery
+â—†Cover for eligible medical costs for rehabilitation care, including 
+traditional Chinese medicine (including acupuncture) during 
+rehabilitation, and daily post-surgery home nursing, etc.
+â—† Rare-in-Hong Kong and 
+the mainland China market Extra rehabilitation care for 
+covered cancer, heart attack and stroke
+â—†Health Consultant
+â—†Medical Concierge and Escort
+â—†Second Medical Opinion
+â—†Worldwide Emergency Assistance
+â—†Medical Green Channel in 
+mainland China 
+â—†Medical Expenses Direct Billing
+â—†SmartAppoint (advanced appointment 
+of designated person for claims)
+â—†Personalised Rehabilitation 
+Assessment
+â—†Specialist Tailored-made 
+Rehabilitation Guidance Plan
+â—†Dedicated Critical Illness Case Manager
+â—†Critical Illness Counselling
+â—† Rare-in-Hong Kong and 
+the mainland China market
+Greater Bay Area Cross-border Cancer 
+Treatment Medical Expenses Direct Billing
+â—† Rare-in-Hong Kong market
+Global Drug Search
+â—† Rare-in-Hong Kong market
+Drug Discount
+â—†Healthcare Service Discount
+Personalised 
+Treatment Assistance Hassle-free Admission, 
+Direct Billing and Claims
+Medication and 
+Healthcare
+Professional Critical Illness
+Management
+Tailored Rehabilitation 
+Care
+Prevention Diagnosis Treatment
+â—†We cover over 14,000â€  2-Grade or above hospitals in mainland China. 
+Rare-in-Hong Kong market No matter which plan you choose, 
+we fully cover your major eligible inpatient and surgical costs when 
+you stay in a standard single room (covers a qualified room in 
+VIP units and international units) in public hospitals in mainland 
+China.</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>What is the annual benefit limit under pruhealth CoreChoice?</t>
+  </si>
+  <si>
+    <t>What's Treatment Sure? I am a policy holder for PRUmyhealth prestige medical plan.</t>
+  </si>
+  <si>
+    <t>Who is eligible to apply for pruhealth CoreChoice? I am a policy holder</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4176,13 +4274,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FFFAFAFA"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4311,12 +4402,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8793,8 +8886,8 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8803,7 +8896,7 @@
     <col min="2" max="2" width="32" style="3" customWidth="1"/>
     <col min="3" max="3" width="45.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="51.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8816,14 +8909,14 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>647</v>
+      <c r="F1" s="17" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8834,56 +8927,56 @@
         <v>584</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>587</v>
-      </c>
-      <c r="F2" t="s">
-        <v>645</v>
+      <c r="F2" s="18" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
         <v>589</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="F3" t="s">
-        <v>646</v>
+      <c r="F3" s="18" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>593</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="D4" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>595</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>597</v>
-      </c>
-      <c r="F4" t="s">
-        <v>646</v>
+      <c r="F4" s="18" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8894,16 +8987,16 @@
         <v>402</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>600</v>
-      </c>
-      <c r="F5" t="s">
-        <v>646</v>
+      <c r="F5" s="18" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="262.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8911,19 +9004,19 @@
         <v>583</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>601</v>
+        <v>649</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>602</v>
-      </c>
-      <c r="D6" s="3" t="s">
         <v>599</v>
       </c>
+      <c r="D6" s="16" t="s">
+        <v>597</v>
+      </c>
       <c r="E6" s="16" t="s">
-        <v>600</v>
-      </c>
-      <c r="F6" t="s">
-        <v>646</v>
+        <v>598</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -8931,139 +9024,139 @@
         <v>583</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>603</v>
+        <v>651</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>604</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>597</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>600</v>
-      </c>
-      <c r="F7" t="s">
-        <v>646</v>
+        <v>598</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>606</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>607</v>
+        <v>602</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>603</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>600</v>
-      </c>
-      <c r="F8" t="s">
-        <v>646</v>
+        <v>598</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>599</v>
+        <v>605</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>597</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>600</v>
-      </c>
-      <c r="F9" t="s">
-        <v>646</v>
+        <v>598</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>611</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>612</v>
+        <v>607</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>608</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>613</v>
-      </c>
-      <c r="F10" t="s">
-        <v>645</v>
+        <v>609</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>615</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>607</v>
+        <v>644</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>603</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>600</v>
-      </c>
-      <c r="F11" t="s">
-        <v>646</v>
+        <v>598</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>611</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>615</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D13" s="16" t="s">
         <v>617</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E13" s="16" t="s">
         <v>618</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>619</v>
-      </c>
-      <c r="F12" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>593</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>620</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>622</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>623</v>
-      </c>
-      <c r="F13" t="s">
-        <v>645</v>
+      <c r="F13" s="18" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -9071,135 +9164,159 @@
         <v>583</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>625</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>626</v>
+        <v>620</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>621</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>627</v>
-      </c>
-      <c r="F14" t="s">
-        <v>645</v>
+        <v>622</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>629</v>
-      </c>
-      <c r="F15" t="s">
+        <v>624</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>645</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>630</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="F16" s="18" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>627</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>628</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>631</v>
       </c>
-      <c r="F16" t="s">
+      <c r="C18" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>588</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="F17" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>593</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="F18" t="s">
-        <v>646</v>
+      <c r="F18" s="18" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>593</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="F19" t="s">
-        <v>645</v>
+        <v>592</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>593</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="C20" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="F20" t="s">
-        <v>646</v>
-      </c>
     </row>
     <row r="21" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>588</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="F21" t="s">
-        <v>646</v>
+      <c r="A21" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>637</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>641</v>
       </c>
     </row>
   </sheetData>
